--- a/data/templates/TearSheet_Template.xlsx
+++ b/data/templates/TearSheet_Template.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="10680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="10680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SI01" sheetId="1" r:id="rId1"/>
     <sheet name="E07" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Assets" sheetId="5" r:id="rId3"/>
+    <sheet name="CashFlow" sheetId="6" r:id="rId4"/>
+    <sheet name="SoI" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="945">
   <si>
     <t>Investment Categories</t>
   </si>
@@ -1541,6 +1543,1326 @@
   </si>
   <si>
     <t xml:space="preserve">                1.21  Issued by U.S. government agencies</t>
+  </si>
+  <si>
+    <t>SF00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2. Stocks (Schedule D):</t>
+  </si>
+  <si>
+    <t>SF00013</t>
+  </si>
+  <si>
+    <t>SF00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3. Mortgage loans on real estate (Schedule B):</t>
+  </si>
+  <si>
+    <t>SF04762</t>
+  </si>
+  <si>
+    <t>SF04763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4. Real estate (Schedule A):</t>
+  </si>
+  <si>
+    <t>SF00016</t>
+  </si>
+  <si>
+    <t>SF06017</t>
+  </si>
+  <si>
+    <t>SF06018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5. Cash ($SF00021, Schedule E - Part 1), cash equivalents ($SF07647, Schedule E -</t>
+  </si>
+  <si>
+    <t>SF04764</t>
+  </si>
+  <si>
+    <t>SF07642</t>
+  </si>
+  <si>
+    <t>SF13840</t>
+  </si>
+  <si>
+    <t>SF00023</t>
+  </si>
+  <si>
+    <t>SF04796</t>
+  </si>
+  <si>
+    <t>SF13841</t>
+  </si>
+  <si>
+    <t>SF00024</t>
+  </si>
+  <si>
+    <t>SF00025</t>
+  </si>
+  <si>
+    <t>SF07879</t>
+  </si>
+  <si>
+    <t>SF00034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15. Premiums and considerations:</t>
+  </si>
+  <si>
+    <t>SF00026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         15.2 Deferred premiums, agents' balances and installments booked but deferred and not yet</t>
+  </si>
+  <si>
+    <t>SF00027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         15.3 Accrued retrospective premiums ($SF27438) and contracts subject to </t>
+  </si>
+  <si>
+    <t>SF00028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16. Reinsurance:</t>
+  </si>
+  <si>
+    <t>SF00031</t>
+  </si>
+  <si>
+    <t>SF00029</t>
+  </si>
+  <si>
+    <t>SF07643</t>
+  </si>
+  <si>
+    <t>SF00037</t>
+  </si>
+  <si>
+    <t>SF07644</t>
+  </si>
+  <si>
+    <t>SF06023</t>
+  </si>
+  <si>
+    <t>SF04797</t>
+  </si>
+  <si>
+    <t>SF00033</t>
+  </si>
+  <si>
+    <t>SF07645</t>
+  </si>
+  <si>
+    <t>SF06020</t>
+  </si>
+  <si>
+    <t>SF00035</t>
+  </si>
+  <si>
+    <t>SF07646</t>
+  </si>
+  <si>
+    <t>SF00038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26. Total assets excluding Separate Accounts, Segregated Accounts and Protected Cell Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SF06677</t>
+  </si>
+  <si>
+    <t>SF06678</t>
+  </si>
+  <si>
+    <t>SF00039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DETAILS OF WRITE-INS</t>
+  </si>
+  <si>
+    <t>SF00040</t>
+  </si>
+  <si>
+    <t>SF00041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1. Bonds (Schedule D) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2.1 Preferred stocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2.2 Common stocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          3.1 First liens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          3.2 Other than first liens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          4.1 Properties occupied by the company (less $SF00018 encumbrances) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          4.2 Properties held for the production of income (less $SF06021 encumbrances) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          4.3 Properties held for sale (less $SF06022 encumbrances) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Part 2) and short-term investments ($SF00022, Schedule DA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     6. Contract loans (including $SF07648 premium notes) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7. Derivatives (Schedule DB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     8. Other invested assets (Schedule BA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9. Receivables for securities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10. Securities lending reinvested collateral assets (Schedule DL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11. Aggregate write-ins for invested assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12. Subtotals, cash and invested assets (Lines 1 to 11) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13. Title plants less $SF07876 charged off (for Title insurers only) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14. Investment income due and accrued </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         15.1 Uncollected premiums and agents' balances in the course of collection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 due (including $SF04494 earned but unbilled premiums) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 redetermination ($SF27439) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.1 Amounts recoverable from reinsurers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.2 Funds held by or deposited with reinsured companies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.3 Other amounts receivable under reinsurance contracts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   17. Amounts receivable relating to uninsured plans </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.1 Current federal and foreign income tax recoverable and interest thereon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.2 Net deferred tax asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19. Guaranty funds receivable or on deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20. Electronic data processing equipment and software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21. Furniture and equipment, including health care delivery assets ($SF07649) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22. Net adjustment in assets and liabilities due to foreign exchange rates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23. Receivables from parent, subsidiaries and affiliates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24. Health care ($SF07650) and other amounts receivable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25. Aggregate write-ins for other than invested assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (Lines 12 to 25) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   27. From Separate Accounts, Segregated Accounts and Protected Cell Accounts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28. Total (Lines 26 and 27) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1198. Summary of remaining write-ins for Line 11 from overflow page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1199. Totals (Lines 1101 through 1103 plus 1198) (Line 11 above) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2501. Future investment income on loss reserves </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2502. Other miscellaneous assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2598. Summary of remaining write-ins for Line 25 from overflow page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2599. Total (Lines 2501 through 2503 plus 2598) (Line 25 above) </t>
+  </si>
+  <si>
+    <t>ST00016</t>
+  </si>
+  <si>
+    <t>ST00017</t>
+  </si>
+  <si>
+    <t>ST00018</t>
+  </si>
+  <si>
+    <t>ST07420</t>
+  </si>
+  <si>
+    <t>ST07421</t>
+  </si>
+  <si>
+    <t>ST00020</t>
+  </si>
+  <si>
+    <t>ST10039</t>
+  </si>
+  <si>
+    <t>ST10040</t>
+  </si>
+  <si>
+    <t>ST07422</t>
+  </si>
+  <si>
+    <t>ST00023</t>
+  </si>
+  <si>
+    <t>ST19574</t>
+  </si>
+  <si>
+    <t>ST00028</t>
+  </si>
+  <si>
+    <t>ST07503</t>
+  </si>
+  <si>
+    <t>ST19575</t>
+  </si>
+  <si>
+    <t>ST00029</t>
+  </si>
+  <si>
+    <t>ST00030</t>
+  </si>
+  <si>
+    <t>ST12814</t>
+  </si>
+  <si>
+    <t>ST00038</t>
+  </si>
+  <si>
+    <t>ST12167</t>
+  </si>
+  <si>
+    <t>ST12168</t>
+  </si>
+  <si>
+    <t>ST12169</t>
+  </si>
+  <si>
+    <t>ST00031</t>
+  </si>
+  <si>
+    <t>ST12170</t>
+  </si>
+  <si>
+    <t>ST07504</t>
+  </si>
+  <si>
+    <t>ST00041</t>
+  </si>
+  <si>
+    <t>ST12171</t>
+  </si>
+  <si>
+    <t>ST10044</t>
+  </si>
+  <si>
+    <t>ST07505</t>
+  </si>
+  <si>
+    <t>ST00034</t>
+  </si>
+  <si>
+    <t>ST12172</t>
+  </si>
+  <si>
+    <t>ST00039</t>
+  </si>
+  <si>
+    <t>ST00040</t>
+  </si>
+  <si>
+    <t>ST12173</t>
+  </si>
+  <si>
+    <t>ST00042</t>
+  </si>
+  <si>
+    <t>ST00043</t>
+  </si>
+  <si>
+    <t>ST00046</t>
+  </si>
+  <si>
+    <t>ST00047</t>
+  </si>
+  <si>
+    <t>HS00085</t>
+  </si>
+  <si>
+    <t>HS00086</t>
+  </si>
+  <si>
+    <t>HS00087</t>
+  </si>
+  <si>
+    <t>HS00088</t>
+  </si>
+  <si>
+    <t>HS00089</t>
+  </si>
+  <si>
+    <t>HS00090</t>
+  </si>
+  <si>
+    <t>HS00091</t>
+  </si>
+  <si>
+    <t>HS00092</t>
+  </si>
+  <si>
+    <t>HS00093</t>
+  </si>
+  <si>
+    <t>HS06142</t>
+  </si>
+  <si>
+    <t>HS12695</t>
+  </si>
+  <si>
+    <t>HS00094</t>
+  </si>
+  <si>
+    <t>HS00095</t>
+  </si>
+  <si>
+    <t>HS12696</t>
+  </si>
+  <si>
+    <t>HS00096</t>
+  </si>
+  <si>
+    <t>HS00097</t>
+  </si>
+  <si>
+    <t>HS07857</t>
+  </si>
+  <si>
+    <t>HS00102</t>
+  </si>
+  <si>
+    <t>HS06143</t>
+  </si>
+  <si>
+    <t>HS06144</t>
+  </si>
+  <si>
+    <t>HS06145</t>
+  </si>
+  <si>
+    <t>HS00100</t>
+  </si>
+  <si>
+    <t>HS06146</t>
+  </si>
+  <si>
+    <t>HS06147</t>
+  </si>
+  <si>
+    <t>HS00104</t>
+  </si>
+  <si>
+    <t>HS06148</t>
+  </si>
+  <si>
+    <t>HS00029</t>
+  </si>
+  <si>
+    <t>HS06149</t>
+  </si>
+  <si>
+    <t>HS00108</t>
+  </si>
+  <si>
+    <t>HS00105</t>
+  </si>
+  <si>
+    <t>HS00101</t>
+  </si>
+  <si>
+    <t>HS00103</t>
+  </si>
+  <si>
+    <t>HS00099</t>
+  </si>
+  <si>
+    <t>HS00110</t>
+  </si>
+  <si>
+    <t>HS06150</t>
+  </si>
+  <si>
+    <t>HS06151</t>
+  </si>
+  <si>
+    <t>HS00111</t>
+  </si>
+  <si>
+    <t>SF00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              DEDUCTIONS</t>
+  </si>
+  <si>
+    <t>SF00096</t>
+  </si>
+  <si>
+    <t>SF00097</t>
+  </si>
+  <si>
+    <t>SF00098</t>
+  </si>
+  <si>
+    <t>SF00099</t>
+  </si>
+  <si>
+    <t>SF00100</t>
+  </si>
+  <si>
+    <t>SF06682</t>
+  </si>
+  <si>
+    <t>SF00101</t>
+  </si>
+  <si>
+    <t>INVESTMENT INCOME</t>
+  </si>
+  <si>
+    <t>SF00102</t>
+  </si>
+  <si>
+    <t>SF00103</t>
+  </si>
+  <si>
+    <t>SF00104</t>
+  </si>
+  <si>
+    <t>OTHER INCOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12. Net gain (loss) from agents' or premium balances charged off</t>
+  </si>
+  <si>
+    <t>SF00105</t>
+  </si>
+  <si>
+    <t>SF00108</t>
+  </si>
+  <si>
+    <t>SF00109</t>
+  </si>
+  <si>
+    <t>SF00110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16. Net income before dividends to policyholders, after capital gains tax and before all other federal and foreign income taxes</t>
+  </si>
+  <si>
+    <t>SF00111</t>
+  </si>
+  <si>
+    <t>SF00112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   18. Net income, after dividends to policyholders, after capital gains tax and before all other federal and foreign income taxes</t>
+  </si>
+  <si>
+    <t>SF00113</t>
+  </si>
+  <si>
+    <t>SF00114</t>
+  </si>
+  <si>
+    <t>SF00115</t>
+  </si>
+  <si>
+    <t>CAPITAL AND SURPLUS ACCOUNT</t>
+  </si>
+  <si>
+    <t>SF00116</t>
+  </si>
+  <si>
+    <t>SF00117</t>
+  </si>
+  <si>
+    <t>SF07882</t>
+  </si>
+  <si>
+    <t>SF00118</t>
+  </si>
+  <si>
+    <t>SF00121</t>
+  </si>
+  <si>
+    <t>SF06030</t>
+  </si>
+  <si>
+    <t>SF00119</t>
+  </si>
+  <si>
+    <t>SF00120</t>
+  </si>
+  <si>
+    <t>SF04798</t>
+  </si>
+  <si>
+    <t>SF06683</t>
+  </si>
+  <si>
+    <t>SF06031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   32. Capital changes:</t>
+  </si>
+  <si>
+    <t>SF00123</t>
+  </si>
+  <si>
+    <t>SF00124</t>
+  </si>
+  <si>
+    <t>SF00125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   33. Surplus adjustments:</t>
+  </si>
+  <si>
+    <t>SF00126</t>
+  </si>
+  <si>
+    <t>SF00127</t>
+  </si>
+  <si>
+    <t>SF00128</t>
+  </si>
+  <si>
+    <t>SF00129</t>
+  </si>
+  <si>
+    <t>SF00130</t>
+  </si>
+  <si>
+    <t>SF00131</t>
+  </si>
+  <si>
+    <t>SF00133</t>
+  </si>
+  <si>
+    <t>SF00134</t>
+  </si>
+  <si>
+    <t>SF00135</t>
+  </si>
+  <si>
+    <t>SF00136</t>
+  </si>
+  <si>
+    <t>SF00137</t>
+  </si>
+  <si>
+    <t>SF00138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1. Premiums earned (Part 1, Line 35, Column 4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2. Losses incurred (Part 2, Line 35, Column 7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3. Loss adjustment expenses incurred (Part 3, Line 25, Column 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4. Other underwriting expenses incurred (Part 3, Line 25, Column 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5. Aggregate write-ins for underwriting deductions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     6. Total underwriting deductions (Lines 2 through 5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7. Net income of protected cells </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     8. Net underwriting gain (loss) (Line 1 minus Line 6 plus Line 7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9. Net investment income earned (Exhibit of Net Investment Income, Line 17) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10. Net realized capital gains (losses) less capital gains tax of $SF07880 (Exhibit of Capital Gains (Losses)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11. Net investment gain (loss) (Lines 9 + 10) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (amount recovered $SF00106 amount charged off $SF00107) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13. Finance and service charges not included in premiums </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14. Aggregate write-ins for miscellaneous income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15. Total other income (Lines 12 through 14) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (Lines 8 + 11 + 15) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   17. Dividends to policyholders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (Line 16 minus Line 17) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19. Federal and foreign income taxes incurred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   20. Net income (Line 18 minus Line 19) (to Line 22) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   21. Surplus as regards policyholders, December 31 prior year (Page 4, Line 39, Column 2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   22. Net income (from Line 20) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   23. Net transfers (to) from Protected Cell accounts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   24. Change in net unrealized capital gains or (losses) less capital gains tax of $SF07881 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   25. Change in net unrealized foreign exchange capital gain (loss) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   26. Change in net deferred income tax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   27. Change in nonadmitted assets (Exhibit of Nonadmitted Assets, Line 28, Col. 3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   28. Change in provision for reinsurance (Page 3, Line 16, Column 2 minus Column 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   29. Change in surplus notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30. Surplus (contributed to) withdrawn from protected cells </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   31. Cumulative effect of changes in accounting principles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         32.1 Paid in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         32.2 Transferred from surplus (Stock Dividend) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         32.3 Transferred to surplus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         33.1 Paid in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         33.2 Transferred to capital (Stock Dividend) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         33.3 Transferred from capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   34. Net remittances from or (to) Home Office </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   35. Dividends to stockholders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36. Change in treasury stock (Page 3, Lines 36.1 and 36.2, Column 2 minus Column 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   37. Aggregate write-ins for gains and losses in surplus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   38. Change in surplus as regards policyholders for the year (Lines 22 through 37) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   39. Surplus as regards policyholders, December 31 current year (Line 21 plus Line 38) (Page 3, Line 37) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0598. Summary of remaining write-ins for Line 5 from overflow page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0599. Totals (Lines 0501 through 0503 plus 0598) (Line 5 above) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1498. Summary of remaining write-ins for Line 14 from overflow page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1499. Totals (Lines 1401 through 1403 plus 1498) (Line 14 above) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3798. Summary of remaining write-ins for Line 37 from overflow page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3799. Totals (Lines 3701 through 3703 plus 3798) (Line 37 above) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3701. Miscellaneous operating adjustments ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3702. Change in conditional reserves </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3703. Miscellaneous capital and surplus adjustments </t>
+  </si>
+  <si>
+    <t>CASH FLOW</t>
+  </si>
+  <si>
+    <t>CASH FROM OPERATIONS</t>
+  </si>
+  <si>
+    <t>SF00139</t>
+  </si>
+  <si>
+    <t>SF00144</t>
+  </si>
+  <si>
+    <t>SF07652</t>
+  </si>
+  <si>
+    <t>SF07653</t>
+  </si>
+  <si>
+    <t>SF07654</t>
+  </si>
+  <si>
+    <t>SF07655</t>
+  </si>
+  <si>
+    <t>SF07656</t>
+  </si>
+  <si>
+    <t>SF00146</t>
+  </si>
+  <si>
+    <t>SF00147</t>
+  </si>
+  <si>
+    <t>SF07657</t>
+  </si>
+  <si>
+    <t>SF00148</t>
+  </si>
+  <si>
+    <t>CASH FROM INVESTMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   12. Proceeds from investments sold, matured or repaid:</t>
+  </si>
+  <si>
+    <t>SF00149</t>
+  </si>
+  <si>
+    <t>SF00150</t>
+  </si>
+  <si>
+    <t>SF00151</t>
+  </si>
+  <si>
+    <t>SF00152</t>
+  </si>
+  <si>
+    <t>SF00154</t>
+  </si>
+  <si>
+    <t>SF00155</t>
+  </si>
+  <si>
+    <t>SF00156</t>
+  </si>
+  <si>
+    <t>SF00157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   13. Cost of investments acquired (long-term only):</t>
+  </si>
+  <si>
+    <t>SF00165</t>
+  </si>
+  <si>
+    <t>SF00166</t>
+  </si>
+  <si>
+    <t>SF00167</t>
+  </si>
+  <si>
+    <t>SF00168</t>
+  </si>
+  <si>
+    <t>SF00170</t>
+  </si>
+  <si>
+    <t>SF00171</t>
+  </si>
+  <si>
+    <t>SF00172</t>
+  </si>
+  <si>
+    <t>SF07658</t>
+  </si>
+  <si>
+    <t>SF04771</t>
+  </si>
+  <si>
+    <t>CASH FROM FINANCING AND MISCELLANEOUS SOURCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16. Cash provided (applied):</t>
+  </si>
+  <si>
+    <t>SF07659</t>
+  </si>
+  <si>
+    <t>SF07660</t>
+  </si>
+  <si>
+    <t>SF07661</t>
+  </si>
+  <si>
+    <t>SF07662</t>
+  </si>
+  <si>
+    <t>SF00173</t>
+  </si>
+  <si>
+    <t>SF07663</t>
+  </si>
+  <si>
+    <t>SF04773</t>
+  </si>
+  <si>
+    <t>RECONCILIATION OF CASH, CASH EQUIVALENTS AND SHORT-TERM INVESTMENTS</t>
+  </si>
+  <si>
+    <t>SF00179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   19. Cash, cash equivalents and short-term investments:</t>
+  </si>
+  <si>
+    <t>SF00180</t>
+  </si>
+  <si>
+    <t>SF00181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Note: Supplemental disclosures of cash flow information for non-cash transactions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1. Premiums collected net of reinsurance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2. Net investment income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3. Miscellaneous income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4. Total (Lines 1 through 3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5. Benefit and loss related payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     6. Net transfers to Separate Accounts, Segregated Accounts and Protected Cell Accounts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7. Commissions, expenses paid and aggregate write-ins for deductions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     8. Dividends paid to policyholders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9. Federal and foreign income taxes paid (recovered) net of $SF07664 tax on capital gains (losses) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10. Total (Lines 5 through 9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   11. Net cash from operations (Line 4 minus Line 10) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.1 Bonds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.2 Stocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.3 Mortgage loans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.4 Real estate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.5 Other invested assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.6 Net gains or (losses) on cash, cash equivalents and short-term investments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.7 Miscellaneous proceeds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12.8 Total investment proceeds (Lines 12.1 to 12.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13.1 Bonds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13.2 Stocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13.3 Mortgage loans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13.4 Real estate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13.5 Other invested assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13.6 Miscellaneous applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13.7 Total investments acquired (Lines 13.1 to 13.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   14. Net increase (decrease) in contract loans and premium notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   15. Net cash from investments (Line 12.8 minus Lines 13.7 and 14) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.1 Surplus notes, capital notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.2 Capital and paid in surplus, less treasury stock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.3 Borrowed funds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.4 Net deposits on deposit-type contracts and other insurance liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.5 Dividends to stockholders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         16.6 Other cash provided (applied) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   17. Net cash from financing and miscellaneous sources (Lines 16.1 to 16.4 minus Line 16.5 plus Line 16.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   18. Net change in cash, cash equivalents and short-term investments (Line 11, plus Lines 15 and 17) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         19.1 Beginning of year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         19.2 End of year (Line 18 plus Line 19.1) </t>
+  </si>
+  <si>
+    <t>ST00194</t>
+  </si>
+  <si>
+    <t>ST07430</t>
+  </si>
+  <si>
+    <t>ST12179</t>
+  </si>
+  <si>
+    <t>ST00200</t>
+  </si>
+  <si>
+    <t>ST12180</t>
+  </si>
+  <si>
+    <t>ST00206</t>
+  </si>
+  <si>
+    <t>ST12181</t>
+  </si>
+  <si>
+    <t>ST00208</t>
+  </si>
+  <si>
+    <t>ST00209</t>
+  </si>
+  <si>
+    <t>ST00212</t>
+  </si>
+  <si>
+    <t>ST00213</t>
+  </si>
+  <si>
+    <t>ST00214</t>
+  </si>
+  <si>
+    <t>ST00215</t>
+  </si>
+  <si>
+    <t>ST00216</t>
+  </si>
+  <si>
+    <t>ST00217</t>
+  </si>
+  <si>
+    <t>ST00219</t>
+  </si>
+  <si>
+    <t>ST00220</t>
+  </si>
+  <si>
+    <t>ST00221</t>
+  </si>
+  <si>
+    <t>ST00222</t>
+  </si>
+  <si>
+    <t>ST00230</t>
+  </si>
+  <si>
+    <t>ST00231</t>
+  </si>
+  <si>
+    <t>ST00232</t>
+  </si>
+  <si>
+    <t>ST00233</t>
+  </si>
+  <si>
+    <t>ST00235</t>
+  </si>
+  <si>
+    <t>ST00236</t>
+  </si>
+  <si>
+    <t>ST00237</t>
+  </si>
+  <si>
+    <t>ST07452</t>
+  </si>
+  <si>
+    <t>ST07453</t>
+  </si>
+  <si>
+    <t>ST12182</t>
+  </si>
+  <si>
+    <t>ST12183</t>
+  </si>
+  <si>
+    <t>ST00226</t>
+  </si>
+  <si>
+    <t>ST10056</t>
+  </si>
+  <si>
+    <t>ST00238</t>
+  </si>
+  <si>
+    <t>ST12184</t>
+  </si>
+  <si>
+    <t>ST07458</t>
+  </si>
+  <si>
+    <t>ST00242</t>
+  </si>
+  <si>
+    <t>ST00243</t>
+  </si>
+  <si>
+    <t>ST00244</t>
+  </si>
+  <si>
+    <t>HS00263</t>
+  </si>
+  <si>
+    <t>HS00268</t>
+  </si>
+  <si>
+    <t>HS06175</t>
+  </si>
+  <si>
+    <t>HS06176</t>
+  </si>
+  <si>
+    <t>HS06177</t>
+  </si>
+  <si>
+    <t>HS06178</t>
+  </si>
+  <si>
+    <t>HS06179</t>
+  </si>
+  <si>
+    <t>HS06180</t>
+  </si>
+  <si>
+    <t>HS00270</t>
+  </si>
+  <si>
+    <t>HS06181</t>
+  </si>
+  <si>
+    <t>HS00271</t>
+  </si>
+  <si>
+    <t>HS00272</t>
+  </si>
+  <si>
+    <t>HS00273</t>
+  </si>
+  <si>
+    <t>HS00274</t>
+  </si>
+  <si>
+    <t>HS00275</t>
+  </si>
+  <si>
+    <t>HS00276</t>
+  </si>
+  <si>
+    <t>HS00277</t>
+  </si>
+  <si>
+    <t>HS00278</t>
+  </si>
+  <si>
+    <t>HS00279</t>
+  </si>
+  <si>
+    <t>HS00280</t>
+  </si>
+  <si>
+    <t>HS00281</t>
+  </si>
+  <si>
+    <t>HS00282</t>
+  </si>
+  <si>
+    <t>HS00283</t>
+  </si>
+  <si>
+    <t>HS00284</t>
+  </si>
+  <si>
+    <t>HS00285</t>
+  </si>
+  <si>
+    <t>HS00286</t>
+  </si>
+  <si>
+    <t>HS06182</t>
+  </si>
+  <si>
+    <t>HS00287</t>
+  </si>
+  <si>
+    <t>HS06183</t>
+  </si>
+  <si>
+    <t>HS06184</t>
+  </si>
+  <si>
+    <t>HS00290</t>
+  </si>
+  <si>
+    <t>HS06185</t>
+  </si>
+  <si>
+    <t>HS00293</t>
+  </si>
+  <si>
+    <t>HS06186</t>
+  </si>
+  <si>
+    <t>HS00298</t>
+  </si>
+  <si>
+    <t>HS00299</t>
+  </si>
+  <si>
+    <t>HS00300</t>
+  </si>
+  <si>
+    <t>HS00301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.0001. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.0002. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.0003. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.9996. </t>
   </si>
 </sst>
 </file>
@@ -1553,7 +2875,7 @@
     <numFmt numFmtId="166" formatCode="0#\9\9\9\9\9"/>
     <numFmt numFmtId="167" formatCode="0000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1592,23 +2914,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial Narrow"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1620,7 +2933,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1693,41 +3006,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1735,7 +3013,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1827,12 +3105,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1848,86 +3120,8 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1935,30 +3129,67 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2279,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3538,7 +4769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3606,10 +4837,10 @@
       <c r="C7" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="39" t="s">
         <v>458</v>
       </c>
     </row>
@@ -3623,10 +4854,10 @@
       <c r="C8" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="40" t="s">
         <v>460</v>
       </c>
     </row>
@@ -3640,10 +4871,10 @@
       <c r="C9" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="40" t="s">
         <v>462</v>
       </c>
     </row>
@@ -3657,10 +4888,10 @@
       <c r="C10" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="40" t="s">
         <v>464</v>
       </c>
     </row>
@@ -3674,10 +4905,10 @@
       <c r="C11" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="40" t="s">
         <v>466</v>
       </c>
     </row>
@@ -3691,10 +4922,10 @@
       <c r="C12" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="40" t="s">
         <v>468</v>
       </c>
     </row>
@@ -3708,10 +4939,10 @@
       <c r="C13" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="40" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3725,10 +4956,10 @@
       <c r="C14" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="40" t="s">
         <v>472</v>
       </c>
     </row>
@@ -3742,10 +4973,10 @@
       <c r="C15" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="40" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3759,10 +4990,10 @@
       <c r="C16" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="40" t="s">
         <v>476</v>
       </c>
     </row>
@@ -3776,7 +5007,7 @@
       <c r="C17" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>432</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -3793,7 +5024,7 @@
       <c r="C18" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>434</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -3810,7 +5041,7 @@
       <c r="C19" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>436</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -3827,7 +5058,7 @@
       <c r="C20" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>438</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -3844,7 +5075,7 @@
       <c r="C21" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>440</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -3861,7 +5092,7 @@
       <c r="C22" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>442</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -3878,7 +5109,7 @@
       <c r="C23" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>444</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -3895,10 +5126,10 @@
       <c r="C24" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="40" t="s">
         <v>492</v>
       </c>
     </row>
@@ -3912,10 +5143,10 @@
       <c r="C25" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="40" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3929,7 +5160,7 @@
       <c r="C26" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>450</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -3946,10 +5177,10 @@
       <c r="C27" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="40" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3963,7 +5194,7 @@
       <c r="C28" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>453</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -3980,7 +5211,7 @@
       <c r="C29" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>455</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -3988,8 +5219,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="37"/>
-      <c r="E30" s="48"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
@@ -4001,10 +5232,10 @@
       <c r="C31" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="40" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4018,10 +5249,10 @@
       <c r="C32" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="40" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4035,10 +5266,10 @@
       <c r="C33" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="40" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4052,10 +5283,10 @@
       <c r="C34" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="40" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4069,10 +5300,10 @@
       <c r="C35" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="40" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4086,10 +5317,10 @@
       <c r="C36" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="40" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4103,10 +5334,10 @@
       <c r="C37" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="40" t="s">
         <v>471</v>
       </c>
     </row>
@@ -4120,10 +5351,10 @@
       <c r="C38" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="40" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4137,10 +5368,10 @@
       <c r="C39" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="40" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4154,10 +5385,10 @@
       <c r="C40" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="40" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4171,7 +5402,7 @@
       <c r="C41" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="34" t="s">
         <v>433</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -4188,7 +5419,7 @@
       <c r="C42" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="34" t="s">
         <v>435</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -4205,7 +5436,7 @@
       <c r="C43" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="34" t="s">
         <v>437</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -4222,7 +5453,7 @@
       <c r="C44" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="34" t="s">
         <v>439</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -4239,7 +5470,7 @@
       <c r="C45" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="34" t="s">
         <v>441</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -4256,7 +5487,7 @@
       <c r="C46" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="34" t="s">
         <v>443</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -4273,7 +5504,7 @@
       <c r="C47" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="34" t="s">
         <v>445</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -4290,10 +5521,10 @@
       <c r="C48" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="40" t="s">
         <v>493</v>
       </c>
     </row>
@@ -4307,10 +5538,10 @@
       <c r="C49" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="40" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4324,7 +5555,7 @@
       <c r="C50" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="34" t="s">
         <v>451</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -4341,7 +5572,7 @@
       <c r="C51" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="34" t="s">
         <v>454</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -4358,7 +5589,7 @@
       <c r="C52" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="36" t="s">
         <v>456</v>
       </c>
       <c r="E52" s="30" t="s">
@@ -4378,7 +5609,7 @@
       <c r="C54" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="37" t="s">
         <v>457</v>
       </c>
       <c r="E54" s="11" t="s">
@@ -4393,1273 +5624,2071 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A2:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="41" customWidth="1"/>
-    <col min="3" max="4" width="3.85546875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="6" style="43" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="43" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="43" customWidth="1"/>
-    <col min="10" max="20" width="10.5703125" style="44" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="61.140625" style="41" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="42" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-    </row>
-    <row r="4" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-    </row>
-    <row r="5" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-    </row>
-    <row r="6" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-    </row>
-    <row r="7" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-    </row>
-    <row r="8" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-    </row>
-    <row r="9" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-    </row>
-    <row r="10" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-    </row>
-    <row r="11" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-    </row>
-    <row r="12" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-    </row>
-    <row r="13" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="54"/>
-    </row>
-    <row r="14" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="59"/>
-    </row>
-    <row r="15" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="59"/>
-    </row>
-    <row r="16" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="59"/>
-    </row>
-    <row r="17" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="59"/>
-    </row>
-    <row r="18" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="59"/>
-    </row>
-    <row r="19" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="59"/>
-    </row>
-    <row r="20" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="59"/>
-    </row>
-    <row r="21" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="59"/>
-    </row>
-    <row r="22" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="59"/>
-    </row>
-    <row r="23" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="59"/>
-    </row>
-    <row r="24" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="59"/>
-    </row>
-    <row r="25" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="59"/>
-    </row>
-    <row r="26" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="59"/>
-    </row>
-    <row r="27" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="59"/>
-    </row>
-    <row r="28" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="59"/>
-    </row>
-    <row r="29" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="59"/>
-    </row>
-    <row r="30" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="59"/>
-    </row>
-    <row r="31" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="59"/>
-    </row>
-    <row r="32" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="59"/>
-    </row>
-    <row r="33" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="59"/>
-    </row>
-    <row r="34" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="59"/>
-    </row>
-    <row r="35" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="61"/>
-    </row>
-    <row r="36" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="59"/>
-    </row>
-    <row r="38" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="59"/>
-    </row>
-    <row r="39" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="59"/>
-    </row>
-    <row r="40" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="59"/>
-    </row>
-    <row r="41" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="59"/>
-    </row>
-    <row r="42" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="59"/>
-    </row>
-    <row r="43" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="59"/>
-    </row>
-    <row r="44" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="59"/>
-    </row>
-    <row r="45" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="59"/>
-    </row>
-    <row r="46" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="59"/>
-    </row>
-    <row r="47" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="59"/>
-    </row>
-    <row r="48" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="59"/>
-    </row>
-    <row r="49" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="59"/>
-    </row>
-    <row r="50" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="59"/>
-    </row>
-    <row r="51" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="59"/>
-    </row>
-    <row r="52" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="59"/>
-    </row>
-    <row r="53" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="59"/>
-    </row>
-    <row r="54" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="59"/>
-    </row>
-    <row r="55" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="59"/>
-    </row>
-    <row r="56" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="59"/>
-    </row>
-    <row r="57" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="61"/>
-    </row>
-    <row r="58" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="66"/>
-    </row>
-    <row r="59" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="68"/>
-    </row>
+    <row r="2" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="4" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>612</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>613</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>614</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>615</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>616</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+    </row>
+    <row r="29" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+    </row>
+    <row r="31" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>619</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>620</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>580</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>581</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>625</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>627</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>628</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
+        <v>587</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
+        <v>588</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+    </row>
+    <row r="45" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="46" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>591</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+    </row>
+    <row r="49" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="50">
+        <v>1101</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+    </row>
+    <row r="50" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50">
+        <v>1102</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+    </row>
+    <row r="51" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50">
+        <v>1103</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+    </row>
+    <row r="52" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
+        <v>592</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+    </row>
+    <row r="53" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+    </row>
+    <row r="54" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>594</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="46">
+        <v>2503</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+    </row>
+    <row r="57" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+    </row>
+    <row r="58" spans="1:3" s="46" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+    </row>
+    <row r="59" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="B59:I59"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.5703125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="56" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+    </row>
+    <row r="3" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="60"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+    </row>
+    <row r="6" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>865</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>903</v>
+      </c>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>828</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>782</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>866</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>904</v>
+      </c>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>867</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>905</v>
+      </c>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>830</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>784</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>906</v>
+      </c>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>869</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>907</v>
+      </c>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>832</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>870</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>908</v>
+      </c>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>833</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>871</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>834</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>872</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>835</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>789</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>873</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>911</v>
+      </c>
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>836</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>874</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>912</v>
+      </c>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>837</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>791</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>875</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>913</v>
+      </c>
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+    </row>
+    <row r="18" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>793</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>838</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>794</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>876</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>914</v>
+      </c>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>839</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>795</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>877</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>915</v>
+      </c>
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>840</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>796</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>878</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>916</v>
+      </c>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>841</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>797</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>879</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>917</v>
+      </c>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>842</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>798</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>880</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>918</v>
+      </c>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>843</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>799</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>881</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>919</v>
+      </c>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>844</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>800</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>920</v>
+      </c>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>845</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>883</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>921</v>
+      </c>
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>802</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+    </row>
+    <row r="28" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>846</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>803</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>922</v>
+      </c>
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>847</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>804</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>923</v>
+      </c>
+      <c r="E29" s="52"/>
+    </row>
+    <row r="30" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>848</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>805</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>886</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>924</v>
+      </c>
+      <c r="E30" s="52"/>
+    </row>
+    <row r="31" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>849</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>806</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>887</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>925</v>
+      </c>
+      <c r="E31" s="52"/>
+    </row>
+    <row r="32" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>850</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>807</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>888</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>926</v>
+      </c>
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>851</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>808</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>889</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>927</v>
+      </c>
+      <c r="E33" s="52"/>
+    </row>
+    <row r="34" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>852</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>809</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>890</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>928</v>
+      </c>
+      <c r="E34" s="52"/>
+    </row>
+    <row r="35" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>810</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>891</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>929</v>
+      </c>
+      <c r="E35" s="52"/>
+    </row>
+    <row r="36" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>811</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>892</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>930</v>
+      </c>
+      <c r="E36" s="52"/>
+    </row>
+    <row r="37" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>812</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>813</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+    </row>
+    <row r="39" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>855</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>893</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>931</v>
+      </c>
+      <c r="E39" s="52"/>
+    </row>
+    <row r="40" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
+        <v>856</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>815</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>894</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>932</v>
+      </c>
+      <c r="E40" s="52"/>
+    </row>
+    <row r="41" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>857</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>895</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>933</v>
+      </c>
+      <c r="E41" s="52"/>
+    </row>
+    <row r="42" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>858</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>817</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>896</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>934</v>
+      </c>
+      <c r="E42" s="52"/>
+    </row>
+    <row r="43" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>859</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>818</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>897</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>935</v>
+      </c>
+      <c r="E43" s="52"/>
+    </row>
+    <row r="44" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>860</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>819</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>898</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>936</v>
+      </c>
+      <c r="E44" s="52"/>
+    </row>
+    <row r="45" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>861</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>899</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>937</v>
+      </c>
+      <c r="E45" s="52"/>
+    </row>
+    <row r="46" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53" t="s">
+        <v>821</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+    </row>
+    <row r="47" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>862</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>822</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>900</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>938</v>
+      </c>
+      <c r="E47" s="52"/>
+    </row>
+    <row r="48" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>823</v>
+      </c>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+    </row>
+    <row r="49" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
+        <v>863</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>824</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>901</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>939</v>
+      </c>
+      <c r="E49" s="52"/>
+    </row>
+    <row r="50" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>825</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>902</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>940</v>
+      </c>
+      <c r="E50" s="52"/>
+    </row>
+    <row r="51" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="52"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
+    </row>
+    <row r="52" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="52"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="52"/>
+    </row>
+    <row r="53" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
+        <v>826</v>
+      </c>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
+    </row>
+    <row r="54" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="61" t="s">
+        <v>941</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+    </row>
+    <row r="55" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="61" t="s">
+        <v>942</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+    </row>
+    <row r="56" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="61" t="s">
+        <v>943</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+    </row>
+    <row r="57" spans="1:5" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="61" t="s">
+        <v>944</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+    </row>
+    <row r="58" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74" style="43" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>727</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" s="52"/>
+    </row>
+    <row r="4" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+    </row>
+    <row r="5" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>728</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>674</v>
+      </c>
+      <c r="C5" s="52"/>
+    </row>
+    <row r="6" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>729</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="C6" s="52"/>
+    </row>
+    <row r="7" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>730</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" s="52"/>
+    </row>
+    <row r="8" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>731</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="C8" s="52"/>
+    </row>
+    <row r="9" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>732</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="C9" s="52"/>
+    </row>
+    <row r="10" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>733</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="C10" s="52"/>
+    </row>
+    <row r="11" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>734</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>680</v>
+      </c>
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:3" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+    </row>
+    <row r="13" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>682</v>
+      </c>
+      <c r="C13" s="52"/>
+    </row>
+    <row r="14" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>683</v>
+      </c>
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" s="52"/>
+    </row>
+    <row r="16" spans="1:3" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>686</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+    </row>
+    <row r="18" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>738</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>687</v>
+      </c>
+      <c r="C18" s="52"/>
+    </row>
+    <row r="19" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>739</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>688</v>
+      </c>
+      <c r="C19" s="52"/>
+    </row>
+    <row r="20" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>689</v>
+      </c>
+      <c r="C20" s="52"/>
+    </row>
+    <row r="21" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>741</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>690</v>
+      </c>
+      <c r="C21" s="52"/>
+    </row>
+    <row r="22" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>691</v>
+      </c>
+      <c r="C22" s="52"/>
+    </row>
+    <row r="23" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>742</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="C23" s="52"/>
+    </row>
+    <row r="24" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>743</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>693</v>
+      </c>
+      <c r="C24" s="52"/>
+    </row>
+    <row r="25" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" s="52"/>
+    </row>
+    <row r="26" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>744</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>695</v>
+      </c>
+      <c r="C26" s="52"/>
+    </row>
+    <row r="27" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>745</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>696</v>
+      </c>
+      <c r="C27" s="52"/>
+    </row>
+    <row r="28" spans="1:3" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>697</v>
+      </c>
+      <c r="C28" s="52"/>
+    </row>
+    <row r="29" spans="1:3" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>698</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+    </row>
+    <row r="30" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="C30" s="52"/>
+    </row>
+    <row r="31" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>748</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>700</v>
+      </c>
+      <c r="C31" s="52"/>
+    </row>
+    <row r="32" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>749</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>701</v>
+      </c>
+      <c r="C32" s="52"/>
+    </row>
+    <row r="33" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>750</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>702</v>
+      </c>
+      <c r="C33" s="52"/>
+    </row>
+    <row r="34" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="C34" s="52"/>
+    </row>
+    <row r="35" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>752</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="C35" s="52"/>
+    </row>
+    <row r="36" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>753</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>705</v>
+      </c>
+      <c r="C36" s="52"/>
+    </row>
+    <row r="37" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>706</v>
+      </c>
+      <c r="C37" s="52"/>
+    </row>
+    <row r="38" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>707</v>
+      </c>
+      <c r="C38" s="52"/>
+    </row>
+    <row r="39" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="C39" s="52"/>
+    </row>
+    <row r="40" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="C40" s="52"/>
+    </row>
+    <row r="41" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>710</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+    </row>
+    <row r="42" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42" s="52"/>
+    </row>
+    <row r="43" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43" s="52"/>
+    </row>
+    <row r="44" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="C44" s="52"/>
+    </row>
+    <row r="45" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>714</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+    </row>
+    <row r="46" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="C46" s="52"/>
+    </row>
+    <row r="47" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="C47" s="52"/>
+    </row>
+    <row r="48" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>763</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>717</v>
+      </c>
+      <c r="C48" s="52"/>
+    </row>
+    <row r="49" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
+        <v>764</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>718</v>
+      </c>
+      <c r="C49" s="52"/>
+    </row>
+    <row r="50" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>765</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>719</v>
+      </c>
+      <c r="C50" s="52"/>
+    </row>
+    <row r="51" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>766</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="C51" s="52"/>
+    </row>
+    <row r="52" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>767</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="C52" s="52"/>
+    </row>
+    <row r="53" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
+        <v>768</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>722</v>
+      </c>
+      <c r="C53" s="52"/>
+    </row>
+    <row r="54" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>769</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>723</v>
+      </c>
+      <c r="C54" s="52"/>
+    </row>
+    <row r="55" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>552</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+    </row>
+    <row r="56" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44">
+        <v>501</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C56" s="52"/>
+    </row>
+    <row r="57" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44">
+        <v>502</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C57" s="52"/>
+    </row>
+    <row r="58" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44">
+        <v>503</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C58" s="52"/>
+    </row>
+    <row r="59" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>770</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C59" s="52"/>
+    </row>
+    <row r="60" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>771</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C60" s="52"/>
+    </row>
+    <row r="61" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44">
+        <v>1401</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C61" s="52"/>
+    </row>
+    <row r="62" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44">
+        <v>1402</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C62" s="52"/>
+    </row>
+    <row r="63" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44">
+        <v>1403</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C63" s="52"/>
+    </row>
+    <row r="64" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
+        <v>772</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C64" s="52"/>
+    </row>
+    <row r="65" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44" t="s">
+        <v>773</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C65" s="52"/>
+    </row>
+    <row r="66" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44" t="s">
+        <v>776</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="C66" s="52"/>
+    </row>
+    <row r="67" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="44" t="s">
+        <v>777</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="C67" s="52"/>
+    </row>
+    <row r="68" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="C68" s="52"/>
+    </row>
+    <row r="69" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44" t="s">
+        <v>774</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C69" s="52"/>
+    </row>
+    <row r="70" spans="1:3" s="44" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="44" t="s">
+        <v>775</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C70" s="52"/>
+    </row>
+    <row r="71" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/templates/TearSheet_Template.xlsx
+++ b/data/templates/TearSheet_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="10680" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="10680" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SI01" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1943">
   <si>
     <t>Amount</t>
   </si>
@@ -5829,6 +5829,45 @@
   </si>
   <si>
     <t>PQ01242</t>
+  </si>
+  <si>
+    <t>Investment Grade Total</t>
+  </si>
+  <si>
+    <t>BI0020</t>
+  </si>
+  <si>
+    <t>CI0030</t>
+  </si>
+  <si>
+    <t>AI05003</t>
+  </si>
+  <si>
+    <t>AI05005</t>
+  </si>
+  <si>
+    <t>AI05006</t>
+  </si>
+  <si>
+    <t>AI05004</t>
+  </si>
+  <si>
+    <t>AI05002</t>
+  </si>
+  <si>
+    <t>BI05001</t>
+  </si>
+  <si>
+    <t>BI05002</t>
+  </si>
+  <si>
+    <t>BI05003</t>
+  </si>
+  <si>
+    <t>BI05004</t>
+  </si>
+  <si>
+    <t>BI05005</t>
   </si>
 </sst>
 </file>
@@ -6565,15 +6604,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A55" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="82" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="60" customWidth="1"/>
@@ -6582,11 +6621,11 @@
     <col min="12" max="12" width="10.7109375" style="61" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="82" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="60" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="59" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="59"/>
+    <col min="15" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6599,7 +6638,7 @@
       <c r="M1" s="91"/>
       <c r="N1" s="91"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -6609,7 +6648,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>1494</v>
       </c>
@@ -6633,21 +6672,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>1002</v>
       </c>
-      <c r="L4" s="61">
-        <v>1</v>
-      </c>
-      <c r="M4" s="82">
-        <v>1</v>
-      </c>
-      <c r="N4" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>1003</v>
       </c>
@@ -6663,17 +6693,8 @@
         <v>176</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="L5" s="61">
-        <v>1</v>
-      </c>
-      <c r="M5" s="82">
-        <v>1</v>
-      </c>
-      <c r="N5" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>1750</v>
       </c>
@@ -6683,17 +6704,8 @@
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="L6" s="61">
-        <v>1</v>
-      </c>
-      <c r="M6" s="82">
-        <v>1</v>
-      </c>
-      <c r="N6" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>1005</v>
       </c>
@@ -6719,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>1006</v>
       </c>
@@ -6745,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>1735</v>
       </c>
@@ -6765,17 +6777,8 @@
         <f ca="1">AI_SUM(A7,A8)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="61">
-        <v>1</v>
-      </c>
-      <c r="M9" s="82">
-        <v>1</v>
-      </c>
-      <c r="N9" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>1752</v>
       </c>
@@ -6791,17 +6794,8 @@
         <v>179</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="L10" s="61">
-        <v>1</v>
-      </c>
-      <c r="M10" s="82">
-        <v>1</v>
-      </c>
-      <c r="N10" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>1007</v>
       </c>
@@ -6811,17 +6805,8 @@
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="L11" s="61">
-        <v>1</v>
-      </c>
-      <c r="M11" s="82">
-        <v>1</v>
-      </c>
-      <c r="N11" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>998</v>
       </c>
@@ -6831,17 +6816,8 @@
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="L12" s="61">
-        <v>1</v>
-      </c>
-      <c r="M12" s="82">
-        <v>1</v>
-      </c>
-      <c r="N12" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>1008</v>
       </c>
@@ -6867,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>1753</v>
       </c>
@@ -6893,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>1009</v>
       </c>
@@ -6919,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>1010</v>
       </c>
@@ -6945,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>1736</v>
       </c>
@@ -6965,17 +6941,8 @@
         <f ca="1">AI_SUM(A13,A14,A15,A16)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L17" s="61">
-        <v>1</v>
-      </c>
-      <c r="M17" s="82">
-        <v>1</v>
-      </c>
-      <c r="N17" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>1011</v>
       </c>
@@ -6985,17 +6952,8 @@
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="L18" s="61">
-        <v>1</v>
-      </c>
-      <c r="M18" s="82">
-        <v>1</v>
-      </c>
-      <c r="N18" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>1012</v>
       </c>
@@ -7015,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>1045</v>
       </c>
@@ -7041,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>1046</v>
       </c>
@@ -7067,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>1047</v>
       </c>
@@ -7093,7 +7051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>1737</v>
       </c>
@@ -7123,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>1013</v>
       </c>
@@ -7143,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>1048</v>
       </c>
@@ -7169,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>1049</v>
       </c>
@@ -7189,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>1751</v>
       </c>
@@ -7215,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>1047</v>
       </c>
@@ -7241,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>1738</v>
       </c>
@@ -7271,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>1739</v>
       </c>
@@ -7291,17 +7249,8 @@
         <f ca="1">AI_SUM(A23,A29)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L30" s="61">
-        <v>1</v>
-      </c>
-      <c r="M30" s="82">
-        <v>1</v>
-      </c>
-      <c r="N30" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>1740</v>
       </c>
@@ -7321,17 +7270,8 @@
         <f ca="1">AI_SUM(A5,A9,A10,A17,A30)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L31" s="61">
-        <v>1</v>
-      </c>
-      <c r="M31" s="82">
-        <v>1</v>
-      </c>
-      <c r="N31" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>1014</v>
       </c>
@@ -7341,17 +7281,8 @@
       <c r="E32" s="5"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="L32" s="61">
-        <v>1</v>
-      </c>
-      <c r="M32" s="82">
-        <v>1</v>
-      </c>
-      <c r="N32" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>1015</v>
       </c>
@@ -7371,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>1000</v>
       </c>
@@ -7397,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>1016</v>
       </c>
@@ -7423,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>1017</v>
       </c>
@@ -7449,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>1741</v>
       </c>
@@ -7469,17 +7400,8 @@
         <f ca="1">AI_SUM(A34,A35,A36)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L37" s="61">
-        <v>1</v>
-      </c>
-      <c r="M37" s="82">
-        <v>1</v>
-      </c>
-      <c r="N37" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>1018</v>
       </c>
@@ -7489,17 +7411,8 @@
       <c r="E38" s="5"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="L38" s="61">
-        <v>1</v>
-      </c>
-      <c r="M38" s="82">
-        <v>1</v>
-      </c>
-      <c r="N38" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>1019</v>
       </c>
@@ -7525,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>1020</v>
       </c>
@@ -7545,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>1021</v>
       </c>
@@ -7571,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>1022</v>
       </c>
@@ -7597,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>1742</v>
       </c>
@@ -7617,17 +7530,8 @@
         <f ca="1">AI_SUM(A41,A42)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L43" s="61">
-        <v>1</v>
-      </c>
-      <c r="M43" s="82">
-        <v>1</v>
-      </c>
-      <c r="N43" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>1023</v>
       </c>
@@ -7647,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>1021</v>
       </c>
@@ -7673,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>1022</v>
       </c>
@@ -7699,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>1743</v>
       </c>
@@ -7719,17 +7623,8 @@
         <f ca="1">AI_SUM(A45,A46)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L47" s="61">
-        <v>1</v>
-      </c>
-      <c r="M47" s="82">
-        <v>1</v>
-      </c>
-      <c r="N47" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>1024</v>
       </c>
@@ -7749,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>1021</v>
       </c>
@@ -7775,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>1022</v>
       </c>
@@ -7801,7 +7696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>1745</v>
       </c>
@@ -7821,17 +7716,8 @@
         <f ca="1">AI_SUM(A49,A50)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L51" s="61">
-        <v>1</v>
-      </c>
-      <c r="M51" s="82">
-        <v>1</v>
-      </c>
-      <c r="N51" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>1025</v>
       </c>
@@ -7851,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>1021</v>
       </c>
@@ -7877,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>1022</v>
       </c>
@@ -7903,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>1744</v>
       </c>
@@ -7923,17 +7809,8 @@
         <f ca="1">AI_SUM(A53,A54)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L55" s="61">
-        <v>1</v>
-      </c>
-      <c r="M55" s="82">
-        <v>1</v>
-      </c>
-      <c r="N55" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>1746</v>
       </c>
@@ -7953,17 +7830,8 @@
         <f ca="1">AI_SUM(A39,A43,A47,A51,A55)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L56" s="61">
-        <v>1</v>
-      </c>
-      <c r="M56" s="82">
-        <v>1</v>
-      </c>
-      <c r="N56" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>1026</v>
       </c>
@@ -7973,17 +7841,8 @@
       <c r="E57" s="5"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="L57" s="61">
-        <v>1</v>
-      </c>
-      <c r="M57" s="82">
-        <v>1</v>
-      </c>
-      <c r="N57" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>1027</v>
       </c>
@@ -8009,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>1028</v>
       </c>
@@ -8035,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>1029</v>
       </c>
@@ -8061,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>1030</v>
       </c>
@@ -8087,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>1031</v>
       </c>
@@ -8113,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>1032</v>
       </c>
@@ -8139,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
         <v>1747</v>
       </c>
@@ -8159,17 +8018,8 @@
         <f ca="1">AI_SUM(A58,A59,A60,A61,A62,A63)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L64" s="61">
-        <v>1</v>
-      </c>
-      <c r="M64" s="82">
-        <v>1</v>
-      </c>
-      <c r="N64" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
         <v>1033</v>
       </c>
@@ -8179,17 +8029,8 @@
       <c r="E65" s="5"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="L65" s="61">
-        <v>1</v>
-      </c>
-      <c r="M65" s="82">
-        <v>1</v>
-      </c>
-      <c r="N65" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>1034</v>
       </c>
@@ -8215,7 +8056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
         <v>1035</v>
       </c>
@@ -8235,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>1036</v>
       </c>
@@ -8261,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
         <v>1037</v>
       </c>
@@ -8281,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
         <v>1001</v>
       </c>
@@ -8307,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
         <v>1748</v>
       </c>
@@ -8327,17 +8168,8 @@
         <f ca="1">AI_SUM(A66,A68,A70)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L71" s="61">
-        <v>1</v>
-      </c>
-      <c r="M71" s="82">
-        <v>1</v>
-      </c>
-      <c r="N71" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
         <v>1038</v>
       </c>
@@ -8363,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
         <v>1039</v>
       </c>
@@ -8389,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
         <v>1040</v>
       </c>
@@ -8415,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
         <v>1041</v>
       </c>
@@ -8441,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
         <v>1042</v>
       </c>
@@ -8457,17 +8289,8 @@
         <v>214</v>
       </c>
       <c r="G76" s="7"/>
-      <c r="L76" s="61">
-        <v>1</v>
-      </c>
-      <c r="M76" s="82">
-        <v>1</v>
-      </c>
-      <c r="N76" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>1043</v>
       </c>
@@ -8483,17 +8306,8 @@
         <v>215</v>
       </c>
       <c r="G77" s="7"/>
-      <c r="L77" s="61">
-        <v>1</v>
-      </c>
-      <c r="M77" s="82">
-        <v>1</v>
-      </c>
-      <c r="N77" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
         <v>1044</v>
       </c>
@@ -8509,17 +8323,8 @@
         <v>216</v>
       </c>
       <c r="G78" s="7"/>
-      <c r="L78" s="61">
-        <v>1</v>
-      </c>
-      <c r="M78" s="82">
-        <v>1</v>
-      </c>
-      <c r="N78" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="52" t="s">
         <v>1495</v>
       </c>
@@ -8538,8 +8343,17 @@
       <c r="N79" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P79" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="59">
+        <v>1</v>
+      </c>
+      <c r="R79" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
         <v>1002</v>
       </c>
@@ -8552,8 +8366,17 @@
       <c r="I80" s="57"/>
       <c r="J80" s="59"/>
       <c r="K80" s="59"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L80" s="61">
+        <v>1</v>
+      </c>
+      <c r="M80" s="82">
+        <v>1</v>
+      </c>
+      <c r="N80" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
         <v>1003</v>
       </c>
@@ -8582,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
         <v>1004</v>
       </c>
@@ -8605,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
         <v>1005</v>
       </c>
@@ -8633,8 +8456,17 @@
       <c r="N83" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P83" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="59">
+        <v>1</v>
+      </c>
+      <c r="R83" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
         <v>1006</v>
       </c>
@@ -8662,8 +8494,17 @@
       <c r="N84" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P84" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="59">
+        <v>1</v>
+      </c>
+      <c r="R84" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
         <v>1735</v>
       </c>
@@ -8684,8 +8525,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I85" s="57"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L85" s="61">
+        <v>1</v>
+      </c>
+      <c r="M85" s="82">
+        <v>1</v>
+      </c>
+      <c r="N85" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
         <v>1752</v>
       </c>
@@ -8704,8 +8554,17 @@
       <c r="I86" s="57"/>
       <c r="J86" s="59"/>
       <c r="K86" s="59"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L86" s="61">
+        <v>1</v>
+      </c>
+      <c r="M86" s="82">
+        <v>1</v>
+      </c>
+      <c r="N86" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
         <v>1007</v>
       </c>
@@ -8728,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
         <v>998</v>
       </c>
@@ -8751,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
         <v>1008</v>
       </c>
@@ -8779,8 +8638,17 @@
       <c r="N89" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P89" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="59">
+        <v>1</v>
+      </c>
+      <c r="R89" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
         <v>1753</v>
       </c>
@@ -8808,8 +8676,17 @@
       <c r="N90" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P90" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="59">
+        <v>1</v>
+      </c>
+      <c r="R90" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
         <v>1009</v>
       </c>
@@ -8837,8 +8714,17 @@
       <c r="N91" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P91" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="59">
+        <v>1</v>
+      </c>
+      <c r="R91" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
         <v>1010</v>
       </c>
@@ -8866,8 +8752,17 @@
       <c r="N92" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P92" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="59">
+        <v>1</v>
+      </c>
+      <c r="R92" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
         <v>1736</v>
       </c>
@@ -8890,8 +8785,17 @@
       <c r="I93" s="57"/>
       <c r="J93" s="59"/>
       <c r="K93" s="59"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L93" s="61">
+        <v>1</v>
+      </c>
+      <c r="M93" s="82">
+        <v>1</v>
+      </c>
+      <c r="N93" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
         <v>1011</v>
       </c>
@@ -8904,8 +8808,17 @@
       <c r="I94" s="57"/>
       <c r="J94" s="59"/>
       <c r="K94" s="59"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L94" s="61">
+        <v>1</v>
+      </c>
+      <c r="M94" s="82">
+        <v>1</v>
+      </c>
+      <c r="N94" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="57" t="s">
         <v>1012</v>
       </c>
@@ -8925,8 +8838,17 @@
       <c r="N95" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P95" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="59">
+        <v>1</v>
+      </c>
+      <c r="R95" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="57" t="s">
         <v>1045</v>
       </c>
@@ -8954,8 +8876,17 @@
       <c r="N96" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P96" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="59">
+        <v>1</v>
+      </c>
+      <c r="R96" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
         <v>1046</v>
       </c>
@@ -8983,8 +8914,17 @@
       <c r="N97" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P97" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="59">
+        <v>1</v>
+      </c>
+      <c r="R97" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
         <v>1047</v>
       </c>
@@ -9012,8 +8952,17 @@
       <c r="N98" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P98" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="59">
+        <v>1</v>
+      </c>
+      <c r="R98" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
         <v>1737</v>
       </c>
@@ -9043,8 +8992,17 @@
       <c r="N99" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P99" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="59">
+        <v>1</v>
+      </c>
+      <c r="R99" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
         <v>1013</v>
       </c>
@@ -9066,8 +9024,17 @@
       <c r="N100" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P100" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="59">
+        <v>1</v>
+      </c>
+      <c r="R100" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="57" t="s">
         <v>1048</v>
       </c>
@@ -9095,8 +9062,17 @@
       <c r="N101" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P101" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="59">
+        <v>1</v>
+      </c>
+      <c r="R101" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
         <v>1049</v>
       </c>
@@ -9118,8 +9094,17 @@
       <c r="N102" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P102" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="59">
+        <v>1</v>
+      </c>
+      <c r="R102" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="57" t="s">
         <v>999</v>
       </c>
@@ -9147,8 +9132,17 @@
       <c r="N103" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P103" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="59">
+        <v>1</v>
+      </c>
+      <c r="R103" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="57" t="s">
         <v>1047</v>
       </c>
@@ -9176,8 +9170,17 @@
       <c r="N104" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P104" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="59">
+        <v>1</v>
+      </c>
+      <c r="R104" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="57" t="s">
         <v>1738</v>
       </c>
@@ -9207,8 +9210,17 @@
       <c r="N105" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P105" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="59">
+        <v>1</v>
+      </c>
+      <c r="R105" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="57" t="s">
         <v>1739</v>
       </c>
@@ -9229,8 +9241,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I106" s="57"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L106" s="61">
+        <v>1</v>
+      </c>
+      <c r="M106" s="82">
+        <v>1</v>
+      </c>
+      <c r="N106" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
         <v>1740</v>
       </c>
@@ -9251,8 +9272,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I107" s="57"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L107" s="61">
+        <v>1</v>
+      </c>
+      <c r="M107" s="82">
+        <v>1</v>
+      </c>
+      <c r="N107" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
         <v>1014</v>
       </c>
@@ -9265,8 +9295,17 @@
       <c r="I108" s="57"/>
       <c r="J108" s="59"/>
       <c r="K108" s="59"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L108" s="61">
+        <v>1</v>
+      </c>
+      <c r="M108" s="82">
+        <v>1</v>
+      </c>
+      <c r="N108" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
         <v>1015</v>
       </c>
@@ -9288,8 +9327,17 @@
       <c r="N109" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P109" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="59">
+        <v>1</v>
+      </c>
+      <c r="R109" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
         <v>1000</v>
       </c>
@@ -9317,8 +9365,17 @@
       <c r="N110" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P110" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="59">
+        <v>1</v>
+      </c>
+      <c r="R110" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="57" t="s">
         <v>1016</v>
       </c>
@@ -9346,8 +9403,17 @@
       <c r="N111" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P111" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="59">
+        <v>1</v>
+      </c>
+      <c r="R111" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="57" t="s">
         <v>1017</v>
       </c>
@@ -9375,8 +9441,17 @@
       <c r="N112" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P112" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="59">
+        <v>1</v>
+      </c>
+      <c r="R112" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="57" t="s">
         <v>1741</v>
       </c>
@@ -9397,8 +9472,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I113" s="57"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L113" s="61">
+        <v>1</v>
+      </c>
+      <c r="M113" s="82">
+        <v>1</v>
+      </c>
+      <c r="N113" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="57" t="s">
         <v>1018</v>
       </c>
@@ -9411,8 +9495,17 @@
       <c r="I114" s="57"/>
       <c r="J114" s="59"/>
       <c r="K114" s="59"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L114" s="61">
+        <v>1</v>
+      </c>
+      <c r="M114" s="82">
+        <v>1</v>
+      </c>
+      <c r="N114" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
         <v>1019</v>
       </c>
@@ -9440,8 +9533,17 @@
       <c r="N115" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P115" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="59">
+        <v>1</v>
+      </c>
+      <c r="R115" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="57" t="s">
         <v>1020</v>
       </c>
@@ -9463,8 +9565,17 @@
       <c r="N116" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P116" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="59">
+        <v>1</v>
+      </c>
+      <c r="R116" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="57" t="s">
         <v>1021</v>
       </c>
@@ -9492,8 +9603,17 @@
       <c r="N117" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P117" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="59">
+        <v>1</v>
+      </c>
+      <c r="R117" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="57" t="s">
         <v>1022</v>
       </c>
@@ -9521,8 +9641,17 @@
       <c r="N118" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P118" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="59">
+        <v>1</v>
+      </c>
+      <c r="R118" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="57" t="s">
         <v>1789</v>
       </c>
@@ -9543,8 +9672,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I119" s="57"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L119" s="61">
+        <v>1</v>
+      </c>
+      <c r="M119" s="82">
+        <v>1</v>
+      </c>
+      <c r="N119" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="57" t="s">
         <v>1023</v>
       </c>
@@ -9566,8 +9704,17 @@
       <c r="N120" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P120" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="59">
+        <v>1</v>
+      </c>
+      <c r="R120" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="57" t="s">
         <v>1021</v>
       </c>
@@ -9595,8 +9742,17 @@
       <c r="N121" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P121" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="59">
+        <v>1</v>
+      </c>
+      <c r="R121" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
         <v>1022</v>
       </c>
@@ -9624,8 +9780,17 @@
       <c r="N122" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P122" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="59">
+        <v>1</v>
+      </c>
+      <c r="R122" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57" t="s">
         <v>1790</v>
       </c>
@@ -9646,8 +9811,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I123" s="57"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L123" s="61">
+        <v>1</v>
+      </c>
+      <c r="M123" s="82">
+        <v>1</v>
+      </c>
+      <c r="N123" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
         <v>1024</v>
       </c>
@@ -9669,8 +9843,17 @@
       <c r="N124" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P124" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="59">
+        <v>1</v>
+      </c>
+      <c r="R124" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="57" t="s">
         <v>1021</v>
       </c>
@@ -9698,8 +9881,17 @@
       <c r="N125" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P125" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="59">
+        <v>1</v>
+      </c>
+      <c r="R125" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="57" t="s">
         <v>1022</v>
       </c>
@@ -9727,8 +9919,17 @@
       <c r="N126" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P126" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="59">
+        <v>1</v>
+      </c>
+      <c r="R126" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="57" t="s">
         <v>1791</v>
       </c>
@@ -9749,8 +9950,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I127" s="57"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L127" s="61">
+        <v>1</v>
+      </c>
+      <c r="M127" s="82">
+        <v>1</v>
+      </c>
+      <c r="N127" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="57" t="s">
         <v>1025</v>
       </c>
@@ -9772,8 +9982,17 @@
       <c r="N128" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P128" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="59">
+        <v>1</v>
+      </c>
+      <c r="R128" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="57" t="s">
         <v>1021</v>
       </c>
@@ -9801,8 +10020,17 @@
       <c r="N129" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P129" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="59">
+        <v>1</v>
+      </c>
+      <c r="R129" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="57" t="s">
         <v>1022</v>
       </c>
@@ -9830,8 +10058,17 @@
       <c r="N130" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P130" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="59">
+        <v>1</v>
+      </c>
+      <c r="R130" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="57" t="s">
         <v>1792</v>
       </c>
@@ -9852,8 +10089,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I131" s="57"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L131" s="61">
+        <v>1</v>
+      </c>
+      <c r="M131" s="82">
+        <v>1</v>
+      </c>
+      <c r="N131" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="57" t="s">
         <v>1746</v>
       </c>
@@ -9874,8 +10120,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I132" s="57"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L132" s="61">
+        <v>1</v>
+      </c>
+      <c r="M132" s="82">
+        <v>1</v>
+      </c>
+      <c r="N132" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="57" t="s">
         <v>1026</v>
       </c>
@@ -9888,8 +10143,17 @@
       <c r="I133" s="57"/>
       <c r="J133" s="59"/>
       <c r="K133" s="59"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L133" s="61">
+        <v>1</v>
+      </c>
+      <c r="M133" s="82">
+        <v>1</v>
+      </c>
+      <c r="N133" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="57" t="s">
         <v>1027</v>
       </c>
@@ -9917,8 +10181,17 @@
       <c r="N134" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P134" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="59">
+        <v>1</v>
+      </c>
+      <c r="R134" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="57" t="s">
         <v>1028</v>
       </c>
@@ -9946,8 +10219,17 @@
       <c r="N135" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P135" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="59">
+        <v>1</v>
+      </c>
+      <c r="R135" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="57" t="s">
         <v>1029</v>
       </c>
@@ -9975,8 +10257,17 @@
       <c r="N136" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P136" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="59">
+        <v>1</v>
+      </c>
+      <c r="R136" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="57" t="s">
         <v>1030</v>
       </c>
@@ -10004,8 +10295,17 @@
       <c r="N137" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P137" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="59">
+        <v>1</v>
+      </c>
+      <c r="R137" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="57" t="s">
         <v>1031</v>
       </c>
@@ -10033,8 +10333,17 @@
       <c r="N138" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P138" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="59">
+        <v>1</v>
+      </c>
+      <c r="R138" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="57" t="s">
         <v>1032</v>
       </c>
@@ -10062,8 +10371,17 @@
       <c r="N139" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P139" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="59">
+        <v>1</v>
+      </c>
+      <c r="R139" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="57" t="s">
         <v>1747</v>
       </c>
@@ -10084,8 +10402,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I140" s="57"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L140" s="61">
+        <v>1</v>
+      </c>
+      <c r="M140" s="82">
+        <v>1</v>
+      </c>
+      <c r="N140" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="57" t="s">
         <v>1033</v>
       </c>
@@ -10098,8 +10425,17 @@
       <c r="I141" s="57"/>
       <c r="J141" s="59"/>
       <c r="K141" s="59"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L141" s="61">
+        <v>1</v>
+      </c>
+      <c r="M141" s="82">
+        <v>1</v>
+      </c>
+      <c r="N141" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="57" t="s">
         <v>1034</v>
       </c>
@@ -10127,8 +10463,17 @@
       <c r="N142" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P142" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="59">
+        <v>1</v>
+      </c>
+      <c r="R142" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="57" t="s">
         <v>1035</v>
       </c>
@@ -10150,8 +10495,17 @@
       <c r="N143" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P143" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="59">
+        <v>1</v>
+      </c>
+      <c r="R143" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="57" t="s">
         <v>1036</v>
       </c>
@@ -10179,8 +10533,17 @@
       <c r="N144" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P144" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="59">
+        <v>1</v>
+      </c>
+      <c r="R144" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="57" t="s">
         <v>1037</v>
       </c>
@@ -10202,8 +10565,17 @@
       <c r="N145" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P145" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="59">
+        <v>1</v>
+      </c>
+      <c r="R145" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="57" t="s">
         <v>1001</v>
       </c>
@@ -10231,8 +10603,17 @@
       <c r="N146" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P146" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="59">
+        <v>1</v>
+      </c>
+      <c r="R146" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="57" t="s">
         <v>1748</v>
       </c>
@@ -10253,8 +10634,17 @@
         <v>#NAME?</v>
       </c>
       <c r="I147" s="57"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L147" s="61">
+        <v>1</v>
+      </c>
+      <c r="M147" s="82">
+        <v>1</v>
+      </c>
+      <c r="N147" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
         <v>1038</v>
       </c>
@@ -10282,8 +10672,17 @@
       <c r="N148" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P148" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="59">
+        <v>1</v>
+      </c>
+      <c r="R148" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="57" t="s">
         <v>1039</v>
       </c>
@@ -10311,8 +10710,17 @@
       <c r="N149" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P149" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="59">
+        <v>1</v>
+      </c>
+      <c r="R149" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="57" t="s">
         <v>1040</v>
       </c>
@@ -10340,8 +10748,17 @@
       <c r="N150" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P150" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="59">
+        <v>1</v>
+      </c>
+      <c r="R150" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="57" t="s">
         <v>1041</v>
       </c>
@@ -10369,8 +10786,17 @@
       <c r="N151" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P151" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="59">
+        <v>1</v>
+      </c>
+      <c r="R151" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="57" t="s">
         <v>1042</v>
       </c>
@@ -10399,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="57" t="s">
         <v>1043</v>
       </c>
@@ -10428,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="57" t="s">
         <v>1044</v>
       </c>
@@ -10457,15 +10883,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J155" s="59"/>
       <c r="K155" s="59"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J156" s="59"/>
       <c r="K156" s="59"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J157" s="59"/>
       <c r="K157" s="59"/>
     </row>
@@ -10479,13 +10905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61"/>
     <col min="4" max="5" width="10.7109375" style="82"/>
     <col min="6" max="7" width="10.7109375" style="60"/>
@@ -10744,20 +11170,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A19" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="82" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="11" width="10.7109375" style="59" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="61" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" style="59" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11209,20 +11635,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="31" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="33" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="35" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="40" customWidth="1"/>
     <col min="8" max="12" width="10.7109375" style="31" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="37" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="31" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="31"/>
+    <col min="14" max="16" width="10.7109375" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12125,20 +12551,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="31" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="32" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="35" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="76" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="77" customWidth="1"/>
     <col min="9" max="13" width="10.7109375" style="31" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="40" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="31"/>
+    <col min="15" max="16" width="10.7109375" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12945,13 +13372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="82" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="60" customWidth="1"/>
@@ -12959,15 +13386,16 @@
     <col min="12" max="12" width="10.7109375" style="61" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="82" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="60" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="59"/>
+    <col min="15" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>1533</v>
       </c>
@@ -12994,21 +13422,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="61" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="82" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="60" customWidth="1"/>
-    <col min="5" max="14" width="10.7109375" style="59" customWidth="1"/>
-    <col min="15" max="16384" width="10.5703125" style="59"/>
+    <col min="5" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="10.5703125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="61" t="s">
         <v>217</v>
       </c>
@@ -13019,7 +13447,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>1273</v>
       </c>
@@ -13037,7 +13465,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>1275</v>
       </c>
@@ -13065,18 +13493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="92" customWidth="1"/>
-    <col min="2" max="14" width="10.7109375" style="92" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="58.7109375" style="92" customWidth="1"/>
+    <col min="2" max="16" width="10.7109375" style="92" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>1277</v>
       </c>
@@ -13091,13 +13519,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A29" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="16" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="17" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="21" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="25" customWidth="1"/>
@@ -13105,7 +13533,7 @@
     <col min="12" max="12" width="10.7109375" style="17" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="21" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="25" customWidth="1"/>
-    <col min="15" max="16" width="9" style="92" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="92" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="16"/>
     <col min="18" max="18" width="14" style="16" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="16"/>
@@ -13179,15 +13607,9 @@
         <v>266</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="18">
-        <v>1</v>
-      </c>
-      <c r="N4" s="22">
-        <v>1</v>
-      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -13205,15 +13627,9 @@
         <v>268</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="18">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22">
-        <v>1</v>
-      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -13231,15 +13647,9 @@
         <v>270</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="L6" s="13">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
-        <v>1</v>
-      </c>
-      <c r="N6" s="22">
-        <v>1</v>
-      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -13257,15 +13667,9 @@
         <v>272</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
-      <c r="M7" s="18">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22">
-        <v>1</v>
-      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -13283,15 +13687,9 @@
         <v>274</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="L8" s="13">
-        <v>1</v>
-      </c>
-      <c r="M8" s="18">
-        <v>1</v>
-      </c>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -13309,15 +13707,9 @@
         <v>276</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="L9" s="13">
-        <v>1</v>
-      </c>
-      <c r="M9" s="18">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
-        <v>1</v>
-      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -13335,15 +13727,9 @@
         <v>278</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="L10" s="13">
-        <v>1</v>
-      </c>
-      <c r="M10" s="18">
-        <v>1</v>
-      </c>
-      <c r="N10" s="22">
-        <v>1</v>
-      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -13361,15 +13747,9 @@
         <v>280</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="18">
-        <v>1</v>
-      </c>
-      <c r="N11" s="22">
-        <v>1</v>
-      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -13387,15 +13767,9 @@
         <v>282</v>
       </c>
       <c r="G12" s="23"/>
-      <c r="L12" s="13">
-        <v>1</v>
-      </c>
-      <c r="M12" s="18">
-        <v>1</v>
-      </c>
-      <c r="N12" s="22">
-        <v>1</v>
-      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -13413,15 +13787,9 @@
         <v>284</v>
       </c>
       <c r="G13" s="23"/>
-      <c r="L13" s="13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="18">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22">
-        <v>1</v>
-      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -13439,15 +13807,9 @@
         <v>286</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="L14" s="13">
-        <v>1</v>
-      </c>
-      <c r="M14" s="18">
-        <v>1</v>
-      </c>
-      <c r="N14" s="22">
-        <v>1</v>
-      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -13465,15 +13827,9 @@
         <v>288</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="18">
-        <v>1</v>
-      </c>
-      <c r="N15" s="22">
-        <v>1</v>
-      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -13491,15 +13847,9 @@
         <v>290</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="L16" s="13">
-        <v>1</v>
-      </c>
-      <c r="M16" s="18">
-        <v>1</v>
-      </c>
-      <c r="N16" s="22">
-        <v>1</v>
-      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -13517,15 +13867,9 @@
         <v>292</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="L17" s="13">
-        <v>1</v>
-      </c>
-      <c r="M17" s="18">
-        <v>1</v>
-      </c>
-      <c r="N17" s="22">
-        <v>1</v>
-      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -13543,15 +13887,9 @@
         <v>294</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="L18" s="13">
-        <v>1</v>
-      </c>
-      <c r="M18" s="18">
-        <v>1</v>
-      </c>
-      <c r="N18" s="22">
-        <v>1</v>
-      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -13569,15 +13907,9 @@
         <v>296</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="L19" s="13">
-        <v>1</v>
-      </c>
-      <c r="M19" s="18">
-        <v>1</v>
-      </c>
-      <c r="N19" s="22">
-        <v>1</v>
-      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -13596,15 +13928,9 @@
       </c>
       <c r="G20" s="7"/>
       <c r="J20" s="26"/>
-      <c r="L20" s="13">
-        <v>1</v>
-      </c>
-      <c r="M20" s="18">
-        <v>1</v>
-      </c>
-      <c r="N20" s="22">
-        <v>1</v>
-      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -13622,15 +13948,9 @@
         <v>300</v>
       </c>
       <c r="G21" s="23"/>
-      <c r="L21" s="13">
-        <v>1</v>
-      </c>
-      <c r="M21" s="18">
-        <v>1</v>
-      </c>
-      <c r="N21" s="22">
-        <v>1</v>
-      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -13648,15 +13968,9 @@
         <v>302</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="L22" s="13">
-        <v>1</v>
-      </c>
-      <c r="M22" s="18">
-        <v>1</v>
-      </c>
-      <c r="N22" s="22">
-        <v>1</v>
-      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -13674,15 +13988,9 @@
         <v>304</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="L23" s="13">
-        <v>1</v>
-      </c>
-      <c r="M23" s="18">
-        <v>1</v>
-      </c>
-      <c r="N23" s="22">
-        <v>1</v>
-      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
@@ -13701,15 +14009,9 @@
       </c>
       <c r="G24" s="23"/>
       <c r="J24" s="26"/>
-      <c r="L24" s="13">
-        <v>1</v>
-      </c>
-      <c r="M24" s="18">
-        <v>1</v>
-      </c>
-      <c r="N24" s="22">
-        <v>1</v>
-      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -13727,15 +14029,9 @@
         <v>307</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="L25" s="13">
-        <v>1</v>
-      </c>
-      <c r="M25" s="18">
-        <v>1</v>
-      </c>
-      <c r="N25" s="22">
-        <v>1</v>
-      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -13764,9 +14060,15 @@
       <c r="E27" s="20"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="22"/>
+      <c r="L27" s="13">
+        <v>1</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1</v>
+      </c>
+      <c r="N27" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -14337,6 +14639,15 @@
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
+      <c r="L50" s="17">
+        <v>1</v>
+      </c>
+      <c r="M50" s="21">
+        <v>1</v>
+      </c>
+      <c r="N50" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
@@ -14367,15 +14678,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A3:P71"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="31" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="32" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="35" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="40" customWidth="1"/>
@@ -14383,13 +14694,21 @@
     <col min="12" max="12" width="10.7109375" style="33" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="37" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="40" customWidth="1"/>
-    <col min="15" max="16" width="9" style="92" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="92" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="31"/>
     <col min="18" max="18" width="37" style="31" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>1497</v>
       </c>
@@ -14399,8 +14718,10 @@
       <c r="C3" s="32" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+    </row>
+    <row r="4" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>1002</v>
       </c>
@@ -14430,11 +14751,8 @@
       <c r="N4" s="39">
         <v>1</v>
       </c>
-      <c r="O4" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>1068</v>
       </c>
@@ -14468,11 +14786,8 @@
       <c r="N5" s="39">
         <v>1</v>
       </c>
-      <c r="O5" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>1050</v>
       </c>
@@ -14499,11 +14814,8 @@
       <c r="N6" s="39">
         <v>1</v>
       </c>
-      <c r="O6" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>1051</v>
       </c>
@@ -14530,11 +14842,8 @@
       <c r="N7" s="39">
         <v>1</v>
       </c>
-      <c r="O7" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>1069</v>
       </c>
@@ -14565,11 +14874,8 @@
       <c r="N8" s="39">
         <v>1</v>
       </c>
-      <c r="O8" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>1052</v>
       </c>
@@ -14596,11 +14902,8 @@
       <c r="N9" s="39">
         <v>1</v>
       </c>
-      <c r="O9" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>1053</v>
       </c>
@@ -14627,11 +14930,8 @@
       <c r="N10" s="39">
         <v>1</v>
       </c>
-      <c r="O10" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>1070</v>
       </c>
@@ -14662,11 +14962,8 @@
       <c r="N11" s="39">
         <v>1</v>
       </c>
-      <c r="O11" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>1071</v>
       </c>
@@ -14693,11 +14990,8 @@
       <c r="N12" s="39">
         <v>1</v>
       </c>
-      <c r="O12" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>1072</v>
       </c>
@@ -14724,11 +15018,8 @@
       <c r="N13" s="39">
         <v>1</v>
       </c>
-      <c r="O13" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>1073</v>
       </c>
@@ -14755,11 +15046,8 @@
       <c r="N14" s="39">
         <v>1</v>
       </c>
-      <c r="O14" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>1042</v>
       </c>
@@ -14786,11 +15074,8 @@
       <c r="N15" s="39">
         <v>1</v>
       </c>
-      <c r="O15" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>1038</v>
       </c>
@@ -14817,11 +15102,8 @@
       <c r="N16" s="39">
         <v>1</v>
       </c>
-      <c r="O16" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>1039</v>
       </c>
@@ -14848,11 +15130,8 @@
       <c r="N17" s="39">
         <v>1</v>
       </c>
-      <c r="O17" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>1043</v>
       </c>
@@ -14879,11 +15158,8 @@
       <c r="N18" s="39">
         <v>1</v>
       </c>
-      <c r="O18" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>1040</v>
       </c>
@@ -14910,11 +15186,8 @@
       <c r="N19" s="39">
         <v>1</v>
       </c>
-      <c r="O19" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>1074</v>
       </c>
@@ -14941,11 +15214,8 @@
       <c r="N20" s="39">
         <v>1</v>
       </c>
-      <c r="O20" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>1054</v>
       </c>
@@ -14972,11 +15242,8 @@
       <c r="N21" s="39">
         <v>1</v>
       </c>
-      <c r="O21" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>1075</v>
       </c>
@@ -14997,11 +15264,8 @@
       <c r="L22" s="27"/>
       <c r="M22" s="36"/>
       <c r="N22" s="39"/>
-      <c r="O22" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
         <v>1508</v>
       </c>
@@ -15026,17 +15290,14 @@
       <c r="L23" s="27">
         <v>1</v>
       </c>
-      <c r="M23" s="59">
-        <v>1</v>
-      </c>
-      <c r="N23" s="59">
-        <v>1</v>
-      </c>
-      <c r="O23" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="36">
+        <v>1</v>
+      </c>
+      <c r="N23" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
         <v>1507</v>
       </c>
@@ -15067,11 +15328,8 @@
       <c r="N24" s="39">
         <v>1</v>
       </c>
-      <c r="O24" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
         <v>1511</v>
       </c>
@@ -15102,11 +15360,8 @@
       <c r="N25" s="39">
         <v>1</v>
       </c>
-      <c r="O25" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>1512</v>
       </c>
@@ -15137,11 +15392,8 @@
       <c r="N26" s="39">
         <v>1</v>
       </c>
-      <c r="O26" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>1513</v>
       </c>
@@ -15172,11 +15424,8 @@
       <c r="N27" s="39">
         <v>1</v>
       </c>
-      <c r="O27" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>1523</v>
       </c>
@@ -15207,11 +15456,8 @@
       <c r="N28" s="39">
         <v>1</v>
       </c>
-      <c r="O28" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>1524</v>
       </c>
@@ -15242,11 +15488,8 @@
       <c r="N29" s="39">
         <v>1</v>
       </c>
-      <c r="O29" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>1525</v>
       </c>
@@ -15277,11 +15520,8 @@
       <c r="N30" s="39">
         <v>1</v>
       </c>
-      <c r="O30" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>1526</v>
       </c>
@@ -15312,11 +15552,8 @@
       <c r="N31" s="39">
         <v>1</v>
       </c>
-      <c r="O31" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>1527</v>
       </c>
@@ -15347,11 +15584,8 @@
       <c r="N32" s="39">
         <v>1</v>
       </c>
-      <c r="O32" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>1528</v>
       </c>
@@ -15382,11 +15616,8 @@
       <c r="N33" s="39">
         <v>1</v>
       </c>
-      <c r="O33" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>1529</v>
       </c>
@@ -15417,11 +15648,8 @@
       <c r="N34" s="39">
         <v>1</v>
       </c>
-      <c r="O34" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>1076</v>
       </c>
@@ -15448,11 +15676,8 @@
       <c r="N35" s="39">
         <v>1</v>
       </c>
-      <c r="O35" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>1055</v>
       </c>
@@ -15479,11 +15704,8 @@
       <c r="N36" s="39">
         <v>1</v>
       </c>
-      <c r="O36" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>1056</v>
       </c>
@@ -15502,11 +15724,8 @@
       <c r="N37" s="39">
         <v>1</v>
       </c>
-      <c r="O37" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>1078</v>
       </c>
@@ -15533,11 +15752,8 @@
       <c r="N38" s="39">
         <v>1</v>
       </c>
-      <c r="O38" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>1079</v>
       </c>
@@ -15556,11 +15772,8 @@
       <c r="N39" s="39">
         <v>1</v>
       </c>
-      <c r="O39" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>1080</v>
       </c>
@@ -15587,11 +15800,8 @@
       <c r="N40" s="39">
         <v>1</v>
       </c>
-      <c r="O40" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>1081</v>
       </c>
@@ -15610,11 +15820,8 @@
       <c r="N41" s="39">
         <v>1</v>
       </c>
-      <c r="O41" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>1077</v>
       </c>
@@ -15641,11 +15848,8 @@
       <c r="N42" s="39">
         <v>1</v>
       </c>
-      <c r="O42" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>1057</v>
       </c>
@@ -15664,11 +15868,8 @@
       <c r="N43" s="39">
         <v>1</v>
       </c>
-      <c r="O43" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>1058</v>
       </c>
@@ -15695,11 +15896,8 @@
       <c r="N44" s="39">
         <v>1</v>
       </c>
-      <c r="O44" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>1082</v>
       </c>
@@ -15726,11 +15924,8 @@
       <c r="N45" s="39">
         <v>1</v>
       </c>
-      <c r="O45" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>1059</v>
       </c>
@@ -15757,11 +15952,8 @@
       <c r="N46" s="39">
         <v>1</v>
       </c>
-      <c r="O46" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>1060</v>
       </c>
@@ -15788,11 +15980,8 @@
       <c r="N47" s="39">
         <v>1</v>
       </c>
-      <c r="O47" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>1088</v>
       </c>
@@ -15819,11 +16008,8 @@
       <c r="N48" s="39">
         <v>1</v>
       </c>
-      <c r="O48" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>1061</v>
       </c>
@@ -15850,11 +16036,8 @@
       <c r="N49" s="39">
         <v>1</v>
       </c>
-      <c r="O49" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>1062</v>
       </c>
@@ -15881,11 +16064,8 @@
       <c r="N50" s="39">
         <v>1</v>
       </c>
-      <c r="O50" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>1063</v>
       </c>
@@ -15912,11 +16092,8 @@
       <c r="N51" s="39">
         <v>1</v>
       </c>
-      <c r="O51" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>1083</v>
       </c>
@@ -15943,11 +16120,8 @@
       <c r="N52" s="39">
         <v>1</v>
       </c>
-      <c r="O52" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>1084</v>
       </c>
@@ -15969,7 +16143,7 @@
       <c r="M53" s="36"/>
       <c r="N53" s="39"/>
     </row>
-    <row r="54" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>1064</v>
       </c>
@@ -15996,11 +16170,8 @@
       <c r="N54" s="39">
         <v>1</v>
       </c>
-      <c r="O54" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>1065</v>
       </c>
@@ -16027,11 +16198,8 @@
       <c r="N55" s="39">
         <v>1</v>
       </c>
-      <c r="O55" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>1066</v>
       </c>
@@ -16058,11 +16226,8 @@
       <c r="N56" s="39">
         <v>1</v>
       </c>
-      <c r="O56" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>1085</v>
       </c>
@@ -16081,11 +16246,8 @@
       <c r="N57" s="39">
         <v>1</v>
       </c>
-      <c r="O57" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>1086</v>
       </c>
@@ -16112,11 +16274,8 @@
       <c r="N58" s="39">
         <v>1</v>
       </c>
-      <c r="O58" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>1087</v>
       </c>
@@ -16143,11 +16302,8 @@
       <c r="N59" s="39">
         <v>1</v>
       </c>
-      <c r="O59" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>1067</v>
       </c>
@@ -16174,11 +16330,8 @@
       <c r="N60" s="39">
         <v>1</v>
       </c>
-      <c r="O60" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="107"/>
       <c r="C61" s="107"/>
@@ -16190,7 +16343,7 @@
       <c r="M61" s="36"/>
       <c r="N61" s="39"/>
     </row>
-    <row r="62" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -16202,7 +16355,7 @@
       <c r="M62" s="36"/>
       <c r="N62" s="39"/>
     </row>
-    <row r="63" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -16214,7 +16367,7 @@
       <c r="M63" s="36"/>
       <c r="N63" s="39"/>
     </row>
-    <row r="64" spans="1:15" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -16313,13 +16466,13 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" style="41" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="32" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="37" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="40" customWidth="1"/>
@@ -16327,7 +16480,7 @@
     <col min="12" max="12" width="10.7109375" style="33" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="37" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="40" customWidth="1"/>
-    <col min="15" max="16" width="9" style="92" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="92" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="41"/>
     <col min="18" max="18" width="34.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="41"/>
@@ -17599,15 +17752,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N83"/>
+  <dimension ref="A3:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A58" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="82" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="60" customWidth="1"/>
@@ -17615,15 +17768,16 @@
     <col min="12" max="12" width="10.7109375" style="61" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="82" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="60" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="59"/>
+    <col min="15" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>1174</v>
       </c>
@@ -17633,17 +17787,8 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
-      <c r="L4" s="61">
-        <v>1</v>
-      </c>
-      <c r="M4" s="82">
-        <v>1</v>
-      </c>
-      <c r="N4" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>1175</v>
       </c>
@@ -17669,7 +17814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>1176</v>
       </c>
@@ -17695,7 +17840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>1177</v>
       </c>
@@ -17721,7 +17866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>1178</v>
       </c>
@@ -17747,7 +17892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>1179</v>
       </c>
@@ -17773,7 +17918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>1180</v>
       </c>
@@ -17799,7 +17944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1182</v>
       </c>
@@ -17819,17 +17964,8 @@
         <f ca="1">AI_SUM(A5,A6)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="61">
-        <v>1</v>
-      </c>
-      <c r="M11" s="82">
-        <v>1</v>
-      </c>
-      <c r="N11" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>1183</v>
       </c>
@@ -17849,17 +17985,8 @@
         <f ca="1">AI_SUM(A7,A8,A9,A10)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L12" s="61">
-        <v>1</v>
-      </c>
-      <c r="M12" s="82">
-        <v>1</v>
-      </c>
-      <c r="N12" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>1181</v>
       </c>
@@ -17875,17 +18002,8 @@
         <v>706</v>
       </c>
       <c r="G13" s="50"/>
-      <c r="L13" s="61">
-        <v>1</v>
-      </c>
-      <c r="M13" s="82">
-        <v>1</v>
-      </c>
-      <c r="N13" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>1184</v>
       </c>
@@ -17895,17 +18013,8 @@
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="L14" s="61">
-        <v>1</v>
-      </c>
-      <c r="M14" s="82">
-        <v>1</v>
-      </c>
-      <c r="N14" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>1175</v>
       </c>
@@ -17931,7 +18040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>1176</v>
       </c>
@@ -17957,7 +18066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>1177</v>
       </c>
@@ -17983,7 +18092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>1178</v>
       </c>
@@ -18009,7 +18118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>1179</v>
       </c>
@@ -18035,7 +18144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>1180</v>
       </c>
@@ -18061,7 +18170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>1182</v>
       </c>
@@ -18081,17 +18190,8 @@
         <f ca="1">AI_SUM(A15,A16)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L21" s="61">
-        <v>1</v>
-      </c>
-      <c r="M21" s="82">
-        <v>1</v>
-      </c>
-      <c r="N21" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>1183</v>
       </c>
@@ -18111,17 +18211,8 @@
         <f ca="1">AI_SUM(A17,A18,A19,A20)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L22" s="61">
-        <v>1</v>
-      </c>
-      <c r="M22" s="82">
-        <v>1</v>
-      </c>
-      <c r="N22" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>1181</v>
       </c>
@@ -18137,17 +18228,8 @@
         <v>713</v>
       </c>
       <c r="G23" s="50"/>
-      <c r="L23" s="61">
-        <v>1</v>
-      </c>
-      <c r="M23" s="82">
-        <v>1</v>
-      </c>
-      <c r="N23" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>1185</v>
       </c>
@@ -18157,17 +18239,8 @@
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
-      <c r="L24" s="61">
-        <v>1</v>
-      </c>
-      <c r="M24" s="82">
-        <v>1</v>
-      </c>
-      <c r="N24" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>1175</v>
       </c>
@@ -18193,7 +18266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>1176</v>
       </c>
@@ -18219,7 +18292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>1177</v>
       </c>
@@ -18245,7 +18318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>1178</v>
       </c>
@@ -18271,7 +18344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>1179</v>
       </c>
@@ -18297,7 +18370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>1180</v>
       </c>
@@ -18323,7 +18396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>1182</v>
       </c>
@@ -18343,17 +18416,8 @@
         <f ca="1">AI_SUM(A25,A26)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L31" s="61">
-        <v>1</v>
-      </c>
-      <c r="M31" s="82">
-        <v>1</v>
-      </c>
-      <c r="N31" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>1183</v>
       </c>
@@ -18373,17 +18437,8 @@
         <f ca="1">AI_SUM(A27,A28,A29,A30)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L32" s="61">
-        <v>1</v>
-      </c>
-      <c r="M32" s="82">
-        <v>1</v>
-      </c>
-      <c r="N32" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>1181</v>
       </c>
@@ -18399,17 +18454,8 @@
         <v>720</v>
       </c>
       <c r="G33" s="50"/>
-      <c r="L33" s="61">
-        <v>1</v>
-      </c>
-      <c r="M33" s="82">
-        <v>1</v>
-      </c>
-      <c r="N33" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>1186</v>
       </c>
@@ -18419,17 +18465,8 @@
       <c r="E34" s="49"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
-      <c r="L34" s="61">
-        <v>1</v>
-      </c>
-      <c r="M34" s="82">
-        <v>1</v>
-      </c>
-      <c r="N34" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>1175</v>
       </c>
@@ -18455,7 +18492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>1176</v>
       </c>
@@ -18481,7 +18518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>1177</v>
       </c>
@@ -18507,7 +18544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>1178</v>
       </c>
@@ -18533,7 +18570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>1179</v>
       </c>
@@ -18559,7 +18596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>1180</v>
       </c>
@@ -18585,7 +18622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>1182</v>
       </c>
@@ -18605,17 +18642,8 @@
         <f ca="1">AI_SUM(A35,A36)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L41" s="61">
-        <v>1</v>
-      </c>
-      <c r="M41" s="82">
-        <v>1</v>
-      </c>
-      <c r="N41" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>1183</v>
       </c>
@@ -18635,17 +18663,8 @@
         <f ca="1">AI_SUM(A37,A38,A39,A40)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L42" s="61">
-        <v>1</v>
-      </c>
-      <c r="M42" s="82">
-        <v>1</v>
-      </c>
-      <c r="N42" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>1181</v>
       </c>
@@ -18661,17 +18680,8 @@
         <v>727</v>
       </c>
       <c r="G43" s="50"/>
-      <c r="L43" s="61">
-        <v>1</v>
-      </c>
-      <c r="M43" s="82">
-        <v>1</v>
-      </c>
-      <c r="N43" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>1187</v>
       </c>
@@ -18681,17 +18691,8 @@
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
-      <c r="L44" s="61">
-        <v>1</v>
-      </c>
-      <c r="M44" s="82">
-        <v>1</v>
-      </c>
-      <c r="N44" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>1175</v>
       </c>
@@ -18717,7 +18718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>1176</v>
       </c>
@@ -18743,7 +18744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>1177</v>
       </c>
@@ -18769,7 +18770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>1178</v>
       </c>
@@ -18795,7 +18796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>1179</v>
       </c>
@@ -18821,7 +18822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>1180</v>
       </c>
@@ -18847,7 +18848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>1182</v>
       </c>
@@ -18867,17 +18868,8 @@
         <f ca="1">AI_SUM(A45,A46)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L51" s="61">
-        <v>1</v>
-      </c>
-      <c r="M51" s="82">
-        <v>1</v>
-      </c>
-      <c r="N51" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>1183</v>
       </c>
@@ -18897,17 +18889,8 @@
         <f ca="1">AI_SUM(A47,A48,A49,A50)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L52" s="61">
-        <v>1</v>
-      </c>
-      <c r="M52" s="82">
-        <v>1</v>
-      </c>
-      <c r="N52" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>1181</v>
       </c>
@@ -18923,17 +18906,8 @@
         <v>734</v>
       </c>
       <c r="G53" s="50"/>
-      <c r="L53" s="61">
-        <v>1</v>
-      </c>
-      <c r="M53" s="82">
-        <v>1</v>
-      </c>
-      <c r="N53" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>1188</v>
       </c>
@@ -18943,17 +18917,8 @@
       <c r="E54" s="49"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
-      <c r="L54" s="61">
-        <v>1</v>
-      </c>
-      <c r="M54" s="82">
-        <v>1</v>
-      </c>
-      <c r="N54" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>1175</v>
       </c>
@@ -18979,7 +18944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>1176</v>
       </c>
@@ -19005,7 +18970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>1177</v>
       </c>
@@ -19031,7 +18996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>1178</v>
       </c>
@@ -19057,7 +19022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>1179</v>
       </c>
@@ -19083,7 +19048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>1180</v>
       </c>
@@ -19109,7 +19074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>1182</v>
       </c>
@@ -19129,17 +19094,8 @@
         <f ca="1">AI_SUM(A55,A56)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L61" s="61">
-        <v>1</v>
-      </c>
-      <c r="M61" s="82">
-        <v>1</v>
-      </c>
-      <c r="N61" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>1183</v>
       </c>
@@ -19159,17 +19115,8 @@
         <f ca="1">AI_SUM(A57,A58,A59,A60)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L62" s="61">
-        <v>1</v>
-      </c>
-      <c r="M62" s="82">
-        <v>1</v>
-      </c>
-      <c r="N62" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>1181</v>
       </c>
@@ -19185,17 +19132,8 @@
         <v>741</v>
       </c>
       <c r="G63" s="50"/>
-      <c r="L63" s="61">
-        <v>1</v>
-      </c>
-      <c r="M63" s="82">
-        <v>1</v>
-      </c>
-      <c r="N63" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>1189</v>
       </c>
@@ -19205,17 +19143,8 @@
       <c r="E64" s="49"/>
       <c r="F64" s="50"/>
       <c r="G64" s="50"/>
-      <c r="L64" s="61">
-        <v>1</v>
-      </c>
-      <c r="M64" s="82">
-        <v>1</v>
-      </c>
-      <c r="N64" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>1175</v>
       </c>
@@ -19241,7 +19170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>1176</v>
       </c>
@@ -19267,7 +19196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>1177</v>
       </c>
@@ -19293,7 +19222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
         <v>1178</v>
       </c>
@@ -19319,7 +19248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="41" t="s">
         <v>1179</v>
       </c>
@@ -19345,7 +19274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="41" t="s">
         <v>1180</v>
       </c>
@@ -19371,7 +19300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>1182</v>
       </c>
@@ -19391,17 +19320,8 @@
         <f ca="1">AI_SUM(A65,A66)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L71" s="61">
-        <v>1</v>
-      </c>
-      <c r="M71" s="82">
-        <v>1</v>
-      </c>
-      <c r="N71" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41" t="s">
         <v>1183</v>
       </c>
@@ -19421,17 +19341,8 @@
         <f ca="1">AI_SUM(A67,A68,A69,A70)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L72" s="61">
-        <v>1</v>
-      </c>
-      <c r="M72" s="82">
-        <v>1</v>
-      </c>
-      <c r="N72" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
         <v>1181</v>
       </c>
@@ -19447,17 +19358,8 @@
         <v>748</v>
       </c>
       <c r="G73" s="50"/>
-      <c r="L73" s="61">
-        <v>1</v>
-      </c>
-      <c r="M73" s="82">
-        <v>1</v>
-      </c>
-      <c r="N73" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>1190</v>
       </c>
@@ -19467,17 +19369,8 @@
       <c r="E74" s="49"/>
       <c r="F74" s="50"/>
       <c r="G74" s="50"/>
-      <c r="L74" s="61">
-        <v>1</v>
-      </c>
-      <c r="M74" s="82">
-        <v>1</v>
-      </c>
-      <c r="N74" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
         <v>1175</v>
       </c>
@@ -19503,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="s">
         <v>1176</v>
       </c>
@@ -19529,7 +19422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="41" t="s">
         <v>1177</v>
       </c>
@@ -19555,7 +19448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="41" t="s">
         <v>1178</v>
       </c>
@@ -19581,7 +19474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="41" t="s">
         <v>1179</v>
       </c>
@@ -19607,7 +19500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="41" t="s">
         <v>1180</v>
       </c>
@@ -19633,7 +19526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>1182</v>
       </c>
@@ -19653,17 +19546,8 @@
         <f ca="1">AI_SUM(A75,A76)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L81" s="61">
-        <v>1</v>
-      </c>
-      <c r="M81" s="82">
-        <v>1</v>
-      </c>
-      <c r="N81" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="41" t="s">
         <v>1183</v>
       </c>
@@ -19683,17 +19567,8 @@
         <f ca="1">AI_SUM(A77,A78,A79,A80)</f>
         <v>#NAME?</v>
       </c>
-      <c r="L82" s="61">
-        <v>1</v>
-      </c>
-      <c r="M82" s="82">
-        <v>1</v>
-      </c>
-      <c r="N82" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="41" t="s">
         <v>1181</v>
       </c>
@@ -19709,6 +19584,87 @@
         <v>755</v>
       </c>
       <c r="G83" s="50"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="59" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B84" s="62" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D84" s="63" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E84" s="63" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F84" s="64" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G84" s="64" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H84" s="59" t="e">
+        <f ca="1">AI_SUM(A11,A21,A31,A41,A51,A61,A71,A81)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="59" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B85" s="62" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E85" s="63" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G85" s="64" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H85" s="59" t="e">
+        <f ca="1">AI_SUM(A12,A22,A32,A42,A52,A62,A72,A82)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="59" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B86" s="62" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F86" s="64" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G86" s="64" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H86" s="59" t="e">
+        <f ca="1">AI_SUM(A84,A85)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19720,13 +19676,13 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A55" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="41" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="32" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="35" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="40" customWidth="1"/>
@@ -19734,7 +19690,8 @@
     <col min="12" max="12" width="10.7109375" style="33" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="41" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="92" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" style="41"/>
+    <col min="15" max="16" width="10.7109375" style="41" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="41"/>
     <col min="18" max="18" width="37.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="41"/>
   </cols>
@@ -19756,9 +19713,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
-      <c r="L4" s="27">
-        <v>1</v>
-      </c>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
@@ -20042,9 +19997,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
-      <c r="L21" s="27">
-        <v>1</v>
-      </c>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="105" t="s">
@@ -20074,9 +20027,7 @@
       <c r="E23" s="34"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
-      <c r="L23" s="27">
-        <v>1</v>
-      </c>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
@@ -20108,9 +20059,7 @@
       <c r="E25" s="34"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
-      <c r="L25" s="27">
-        <v>1</v>
-      </c>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="105" t="s">
@@ -20190,9 +20139,7 @@
       <c r="E30" s="34"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
-      <c r="L30" s="27">
-        <v>1</v>
-      </c>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
@@ -20322,9 +20269,7 @@
       <c r="E38" s="34"/>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
-      <c r="L38" s="27">
-        <v>1</v>
-      </c>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
@@ -20374,9 +20319,7 @@
       <c r="E41" s="34"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
-      <c r="L41" s="27">
-        <v>1</v>
-      </c>
+      <c r="L41" s="27"/>
     </row>
     <row r="42" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
@@ -20428,9 +20371,7 @@
       <c r="E44" s="34"/>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
-      <c r="L44" s="27">
-        <v>1</v>
-      </c>
+      <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
@@ -20518,9 +20459,7 @@
       <c r="E49" s="34"/>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
-      <c r="L49" s="27">
-        <v>1</v>
-      </c>
+      <c r="L49" s="27"/>
     </row>
     <row r="50" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
@@ -20782,9 +20721,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
-      <c r="L64" s="27">
-        <v>1</v>
-      </c>
+      <c r="L64" s="27"/>
     </row>
     <row r="65" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
@@ -21097,28 +21034,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="82" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="12" width="10.7109375" style="59" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="82" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="59" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="59"/>
+    <col min="14" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>1501</v>
       </c>
@@ -21127,7 +21064,7 @@
       <c r="D3" s="96"/>
       <c r="E3" s="96"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>1191</v>
       </c>
@@ -21136,7 +21073,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>1192</v>
       </c>
@@ -21145,7 +21082,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>1090</v>
       </c>
@@ -21154,7 +21091,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>1225</v>
       </c>
@@ -21163,7 +21100,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>1193</v>
       </c>
@@ -21172,7 +21109,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>1194</v>
       </c>
@@ -21181,7 +21118,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>1195</v>
       </c>
@@ -21190,14 +21127,14 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>1196</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>1197</v>
       </c>
@@ -21206,7 +21143,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>1198</v>
       </c>
@@ -21215,7 +21152,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>1199</v>
       </c>
@@ -21224,7 +21161,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>89</v>
       </c>
@@ -21233,7 +21170,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>1200</v>
       </c>
@@ -21242,7 +21179,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>1226</v>
       </c>
@@ -21251,7 +21188,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>1227</v>
       </c>
@@ -21260,7 +21197,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>1201</v>
       </c>
@@ -21269,7 +21206,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>1202</v>
       </c>
@@ -21278,7 +21215,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>1203</v>
       </c>
@@ -21287,7 +21224,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>1204</v>
       </c>
@@ -21296,7 +21233,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>1205</v>
       </c>
@@ -21305,7 +21242,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>1206</v>
       </c>
@@ -21314,7 +21251,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>1207</v>
       </c>
@@ -21323,7 +21260,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>89</v>
       </c>
@@ -21332,7 +21269,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>1208</v>
       </c>
@@ -21341,7 +21278,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>1209</v>
       </c>
@@ -21350,7 +21287,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>1210</v>
       </c>
@@ -21359,7 +21296,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>1211</v>
       </c>
@@ -21368,7 +21305,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>1212</v>
       </c>
@@ -21377,7 +21314,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>1213</v>
       </c>
@@ -21386,7 +21323,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>1214</v>
       </c>
@@ -21395,7 +21332,7 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>89</v>
       </c>
@@ -21404,7 +21341,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>1215</v>
       </c>
@@ -21413,7 +21350,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>1143</v>
       </c>
@@ -21422,7 +21359,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>1216</v>
       </c>
@@ -21431,7 +21368,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>1217</v>
       </c>
@@ -21440,7 +21377,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>1218</v>
       </c>
@@ -21449,7 +21386,7 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>1219</v>
       </c>
@@ -21458,7 +21395,7 @@
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>1146</v>
       </c>
@@ -21467,7 +21404,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>1537</v>
       </c>
@@ -21480,14 +21417,14 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
         <v>446</v>
       </c>
       <c r="D43" s="102"/>
       <c r="E43" s="102"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>1228</v>
       </c>
@@ -21496,7 +21433,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>1146</v>
       </c>
@@ -21505,7 +21442,7 @@
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>1229</v>
       </c>
@@ -21514,7 +21451,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>1230</v>
       </c>
@@ -21523,7 +21460,7 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>1151</v>
       </c>
@@ -21532,7 +21469,7 @@
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>1152</v>
       </c>
@@ -21541,7 +21478,7 @@
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>1220</v>
       </c>
@@ -21550,7 +21487,7 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>1231</v>
       </c>
@@ -21559,7 +21496,7 @@
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>1221</v>
       </c>
@@ -21568,7 +21505,7 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>1166</v>
       </c>
@@ -21577,7 +21514,7 @@
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>1222</v>
       </c>
@@ -21586,7 +21523,7 @@
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>1223</v>
       </c>
@@ -21595,7 +21532,7 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>1154</v>
       </c>
@@ -21604,7 +21541,7 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>1156</v>
       </c>
@@ -21613,14 +21550,14 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>1157</v>
       </c>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>1158</v>
       </c>
@@ -21629,7 +21566,7 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>1159</v>
       </c>
@@ -21638,7 +21575,7 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>1160</v>
       </c>
@@ -21647,14 +21584,14 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>1161</v>
       </c>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>1158</v>
       </c>
@@ -21663,7 +21600,7 @@
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
         <v>1162</v>
       </c>
@@ -21672,7 +21609,7 @@
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
         <v>1163</v>
       </c>
@@ -21681,7 +21618,7 @@
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>1224</v>
       </c>
@@ -21690,7 +21627,7 @@
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
         <v>1165</v>
       </c>
@@ -21699,7 +21636,7 @@
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>1167</v>
       </c>
@@ -21708,7 +21645,7 @@
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
         <v>1232</v>
       </c>
@@ -21717,7 +21654,7 @@
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
         <v>1233</v>
       </c>
@@ -21726,82 +21663,82 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53"/>
       <c r="D71" s="103"/>
       <c r="E71" s="103"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="57"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="57"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="57"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="57"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="57"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="57"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="57"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34"/>
@@ -21814,30 +21751,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="31" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="82" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="13" width="10.7109375" style="59" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="60" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="59"/>
+    <col min="15" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>1504</v>
       </c>
@@ -21848,7 +21786,7 @@
       <c r="F3" s="96"/>
       <c r="G3" s="96"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>1234</v>
       </c>
@@ -21856,8 +21794,11 @@
         <v>966</v>
       </c>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N4" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>1257</v>
       </c>
@@ -21866,7 +21807,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>1235</v>
       </c>
@@ -21874,8 +21815,11 @@
         <v>968</v>
       </c>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N6" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>1258</v>
       </c>
@@ -21883,8 +21827,11 @@
         <v>969</v>
       </c>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N7" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>1236</v>
       </c>
@@ -21892,8 +21839,11 @@
         <v>970</v>
       </c>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N8" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>1237</v>
       </c>
@@ -21901,8 +21851,11 @@
         <v>971</v>
       </c>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N9" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>1238</v>
       </c>
@@ -21910,8 +21863,11 @@
         <v>972</v>
       </c>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N10" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>1259</v>
       </c>
@@ -21919,15 +21875,21 @@
         <v>973</v>
       </c>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N11" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>942</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N12" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>1239</v>
       </c>
@@ -21935,8 +21897,11 @@
         <v>974</v>
       </c>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N13" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>1240</v>
       </c>
@@ -21944,8 +21909,11 @@
         <v>975</v>
       </c>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N14" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>1241</v>
       </c>
@@ -21953,8 +21921,11 @@
         <v>976</v>
       </c>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N15" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>1242</v>
       </c>
@@ -21962,8 +21933,11 @@
         <v>977</v>
       </c>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N16" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>1243</v>
       </c>
@@ -21971,8 +21945,11 @@
         <v>978</v>
       </c>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N17" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>1244</v>
       </c>
@@ -21980,8 +21957,11 @@
         <v>979</v>
       </c>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N18" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>1245</v>
       </c>
@@ -21989,8 +21969,11 @@
         <v>980</v>
       </c>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N19" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>1260</v>
       </c>
@@ -21998,15 +21981,21 @@
         <v>981</v>
       </c>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N20" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>943</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N21" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>1246</v>
       </c>
@@ -22014,8 +22003,11 @@
         <v>982</v>
       </c>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N22" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>1261</v>
       </c>
@@ -22023,8 +22015,11 @@
         <v>983</v>
       </c>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N23" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>1247</v>
       </c>
@@ -22032,8 +22027,11 @@
         <v>984</v>
       </c>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N24" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>1262</v>
       </c>
@@ -22041,8 +22039,11 @@
         <v>985</v>
       </c>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N25" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>1248</v>
       </c>
@@ -22050,8 +22051,11 @@
         <v>986</v>
       </c>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N26" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>1263</v>
       </c>
@@ -22059,8 +22063,11 @@
         <v>987</v>
       </c>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N27" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>1130</v>
       </c>
@@ -22068,8 +22075,11 @@
         <v>988</v>
       </c>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N28" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>1264</v>
       </c>
@@ -22078,7 +22088,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>1133</v>
       </c>
@@ -22087,7 +22097,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>1265</v>
       </c>
@@ -22096,7 +22106,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>1266</v>
       </c>
@@ -22105,7 +22115,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>1267</v>
       </c>
@@ -22113,8 +22123,11 @@
         <v>993</v>
       </c>
       <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N33" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>1249</v>
       </c>
@@ -22122,8 +22135,11 @@
         <v>994</v>
       </c>
       <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N34" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>1268</v>
       </c>
@@ -22131,8 +22147,11 @@
         <v>995</v>
       </c>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N35" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>1145</v>
       </c>
@@ -22140,8 +22159,11 @@
         <v>996</v>
       </c>
       <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N36" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>1269</v>
       </c>
@@ -22150,7 +22172,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>1537</v>
       </c>
@@ -22163,7 +22185,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
         <v>944</v>
       </c>
@@ -22171,8 +22193,11 @@
       <c r="C39" s="78"/>
       <c r="D39" s="80"/>
       <c r="E39" s="80"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N39" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>1250</v>
       </c>
@@ -22185,7 +22210,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>1251</v>
       </c>
@@ -22197,8 +22222,11 @@
         <v>946</v>
       </c>
       <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N41" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>1252</v>
       </c>
@@ -22210,8 +22238,11 @@
         <v>947</v>
       </c>
       <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N42" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>1270</v>
       </c>
@@ -22223,8 +22254,11 @@
         <v>948</v>
       </c>
       <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N43" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>1253</v>
       </c>
@@ -22236,8 +22270,11 @@
         <v>949</v>
       </c>
       <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N44" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>1151</v>
       </c>
@@ -22249,8 +22286,11 @@
         <v>950</v>
       </c>
       <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N45" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>1152</v>
       </c>
@@ -22262,8 +22302,11 @@
         <v>951</v>
       </c>
       <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N46" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>1254</v>
       </c>
@@ -22275,8 +22318,11 @@
         <v>952</v>
       </c>
       <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N47" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>1166</v>
       </c>
@@ -22288,8 +22334,11 @@
         <v>953</v>
       </c>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N48" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>1154</v>
       </c>
@@ -22301,8 +22350,11 @@
         <v>954</v>
       </c>
       <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N49" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>1156</v>
       </c>
@@ -22314,8 +22366,11 @@
         <v>955</v>
       </c>
       <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N50" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>1255</v>
       </c>
@@ -22325,8 +22380,11 @@
       <c r="E51" s="81"/>
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N51" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>1158</v>
       </c>
@@ -22338,8 +22396,11 @@
         <v>956</v>
       </c>
       <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N52" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>1159</v>
       </c>
@@ -22351,8 +22412,11 @@
         <v>957</v>
       </c>
       <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N53" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>1160</v>
       </c>
@@ -22364,8 +22428,11 @@
         <v>958</v>
       </c>
       <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N54" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>1161</v>
       </c>
@@ -22375,8 +22442,11 @@
       <c r="E55" s="81"/>
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N55" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>1158</v>
       </c>
@@ -22388,8 +22458,11 @@
         <v>959</v>
       </c>
       <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N56" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>1162</v>
       </c>
@@ -22401,8 +22474,11 @@
         <v>960</v>
       </c>
       <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N57" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>1163</v>
       </c>
@@ -22414,8 +22490,11 @@
         <v>961</v>
       </c>
       <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N58" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>1165</v>
       </c>
@@ -22427,8 +22506,11 @@
         <v>962</v>
       </c>
       <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N59" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>1256</v>
       </c>
@@ -22440,8 +22522,11 @@
         <v>963</v>
       </c>
       <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N60" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>1271</v>
       </c>
@@ -22454,7 +22539,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>1272</v>
       </c>
@@ -22467,54 +22552,165 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="57" t="s">
+        <v>1771</v>
+      </c>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="F63" s="64" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H63" s="59" t="e">
+        <f ca="1">AI_SUM('E07'!A19,SI05_07!A5,SI05_07!A15,SI05_07!A25,SI05_07!A35,SI05_07!A45,SI05_07!A55,SI05_07!A65,SI05_07!A75,Assets!#REF!,Assets!#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N63" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="89" t="s">
+        <v>1780</v>
+      </c>
       <c r="B64" s="87"/>
       <c r="C64" s="87"/>
       <c r="D64" s="88"/>
       <c r="E64" s="88"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="F64" s="64" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H64" s="59" t="e">
+        <f ca="1">AI_SUM(Assets!#REF!,Assets!#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N64" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="57" t="s">
+        <v>1783</v>
+      </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="F65" s="64" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H65" s="59" t="e">
+        <f ca="1">AI_SUM(SI05_07!A5,SI05_07!A15,SI05_07!A25,SI05_07!A35,SI05_07!A45,SI05_07!A55,SI05_07!A65,SI05_07!A75)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N65" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57" t="s">
+        <v>1777</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+      <c r="F66" s="64" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H66" s="59" t="e">
+        <f ca="1">AI_DIFF(Assets!A15,'E07'!A19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N66" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="57" t="s">
+        <v>1769</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="F67" s="64" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H67" s="59" t="e">
+        <f ca="1">AI_DIV(Assets!A15,A62)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="57" t="s">
+        <v>1773</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="F68" s="64" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H68" s="59" t="e">
+        <f ca="1">AI_DIV(A63,A62)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="57" t="s">
+        <v>1775</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34"/>
+      <c r="F69" s="64" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H69" s="59" t="e">
+        <f ca="1">AI_DIV(A66,'E07'!A19)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H70" s="59" t="e">
+        <f ca="1">AI_DIV(A64,A62)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F71" s="64" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H71" s="59" t="e">
+        <f ca="1">AI_DIV(A65,A62)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F72" s="64" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H72" s="59" t="e">
+        <f ca="1">AI_DIV(A65,Assets!A15)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22525,20 +22721,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="59" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="61" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" style="82" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="60" customWidth="1"/>
     <col min="8" max="11" width="10.7109375" style="59" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="61" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" style="59" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="59"/>
+    <col min="13" max="16" width="10.7109375" style="59" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22553,9 +22749,6 @@
       <c r="B4" s="61" t="s">
         <v>915</v>
       </c>
-      <c r="L4" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -22594,9 +22787,6 @@
       <c r="B8" s="61" t="s">
         <v>919</v>
       </c>
-      <c r="L8" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
@@ -22616,9 +22806,6 @@
       <c r="B10" s="61" t="s">
         <v>921</v>
       </c>
-      <c r="L10" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
@@ -22638,9 +22825,6 @@
       <c r="B12" s="61" t="s">
         <v>923</v>
       </c>
-      <c r="L12" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
@@ -22679,9 +22863,6 @@
       <c r="B16" s="61" t="s">
         <v>927</v>
       </c>
-      <c r="L16" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
@@ -22701,9 +22882,6 @@
       <c r="B18" s="61" t="s">
         <v>929</v>
       </c>
-      <c r="L18" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
@@ -22723,9 +22901,6 @@
       <c r="B20" s="61" t="s">
         <v>931</v>
       </c>
-      <c r="L20" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
@@ -22745,9 +22920,6 @@
       <c r="B22" s="61" t="s">
         <v>933</v>
       </c>
-      <c r="L22" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
@@ -22767,9 +22939,6 @@
       <c r="B24" s="61" t="s">
         <v>935</v>
       </c>
-      <c r="L24" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -22789,9 +22958,6 @@
       <c r="B26" s="61" t="s">
         <v>937</v>
       </c>
-      <c r="L26" s="61">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
@@ -22810,9 +22976,6 @@
       </c>
       <c r="B28" s="61" t="s">
         <v>939</v>
-      </c>
-      <c r="L28" s="61">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
